--- a/data/base_data.xlsx
+++ b/data/base_data.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Proyectos\Python\lstm_inflacion\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raul/Documents/GitHub/lstm_inflacion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E510A5B-2156-4AE1-B1E4-8815258E8E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E0BD73-27B5-1742-A661-17A8DC85C566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EDB80237-09DA-45B6-961C-40E35EFB3DA7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25920" windowHeight="14880" xr2:uid="{EDB80237-09DA-45B6-961C-40E35EFB3DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$J$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$257</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>IPC</t>
   </si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>PRECIP_GAP</t>
+  </si>
+  <si>
+    <t>Inflation</t>
   </si>
 </sst>
 </file>
@@ -95,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,6 +119,1307 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+      <sheetName val="Hoja3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1645">
+          <cell r="C1645">
+            <v>-485.40513833991918</v>
+          </cell>
+        </row>
+        <row r="1646">
+          <cell r="C1646">
+            <v>-196.88752615670535</v>
+          </cell>
+        </row>
+        <row r="1647">
+          <cell r="C1647">
+            <v>-1.9822446432253855</v>
+          </cell>
+        </row>
+        <row r="1648">
+          <cell r="C1648">
+            <v>173.53994290733658</v>
+          </cell>
+        </row>
+        <row r="1649">
+          <cell r="C1649">
+            <v>-253.42173913042916</v>
+          </cell>
+        </row>
+        <row r="1650">
+          <cell r="C1650">
+            <v>386.98691887822633</v>
+          </cell>
+        </row>
+        <row r="1651">
+          <cell r="C1651">
+            <v>297.68893280632074</v>
+          </cell>
+        </row>
+        <row r="1652">
+          <cell r="C1652">
+            <v>-102.98515276993294</v>
+          </cell>
+        </row>
+        <row r="1653">
+          <cell r="C1653">
+            <v>-117.8140316205513</v>
+          </cell>
+        </row>
+        <row r="1654">
+          <cell r="C1654">
+            <v>281.36047430830013</v>
+          </cell>
+        </row>
+        <row r="1655">
+          <cell r="C1655">
+            <v>529.72134387351389</v>
+          </cell>
+        </row>
+        <row r="1656">
+          <cell r="C1656">
+            <v>221.18893280632824</v>
+          </cell>
+        </row>
+        <row r="1657">
+          <cell r="C1657">
+            <v>-224.33241106719299</v>
+          </cell>
+        </row>
+        <row r="1658">
+          <cell r="C1658">
+            <v>-251.22408742152766</v>
+          </cell>
+        </row>
+        <row r="1659">
+          <cell r="C1659">
+            <v>-387.39229249011555</v>
+          </cell>
+        </row>
+        <row r="1660">
+          <cell r="C1660">
+            <v>230.90711462450327</v>
+          </cell>
+        </row>
+        <row r="1661">
+          <cell r="C1661">
+            <v>207.58735177866129</v>
+          </cell>
+        </row>
+        <row r="1662">
+          <cell r="C1662">
+            <v>-65.887107095803003</v>
+          </cell>
+        </row>
+        <row r="1663">
+          <cell r="C1663">
+            <v>57.752569169965227</v>
+          </cell>
+        </row>
+        <row r="1664">
+          <cell r="C1664">
+            <v>-22.658385093167908</v>
+          </cell>
+        </row>
+        <row r="1665">
+          <cell r="C1665">
+            <v>86.017786561266121</v>
+          </cell>
+        </row>
+        <row r="1666">
+          <cell r="C1666">
+            <v>-425.95770750987685</v>
+          </cell>
+        </row>
+        <row r="1667">
+          <cell r="C1667">
+            <v>146.79407114624564</v>
+          </cell>
+        </row>
+        <row r="1668">
+          <cell r="C1668">
+            <v>-66.233794466404788</v>
+          </cell>
+        </row>
+        <row r="1669">
+          <cell r="C1669">
+            <v>294.40395256916702</v>
+          </cell>
+        </row>
+        <row r="1670">
+          <cell r="C1670">
+            <v>79.927493606139933</v>
+          </cell>
+        </row>
+        <row r="1671">
+          <cell r="C1671">
+            <v>85.094071146240822</v>
+          </cell>
+        </row>
+        <row r="1672">
+          <cell r="C1672">
+            <v>334.78893280632724</v>
+          </cell>
+        </row>
+        <row r="1673">
+          <cell r="C1673">
+            <v>338.21007905138777</v>
+          </cell>
+        </row>
+        <row r="1674">
+          <cell r="C1674">
+            <v>17.421983813283532</v>
+          </cell>
+        </row>
+        <row r="1675">
+          <cell r="C1675">
+            <v>-145.61561264821785</v>
+          </cell>
+        </row>
+        <row r="1676">
+          <cell r="C1676">
+            <v>-96.268266516095082</v>
+          </cell>
+        </row>
+        <row r="1677">
+          <cell r="C1677">
+            <v>-199.63675889328329</v>
+          </cell>
+        </row>
+        <row r="1678">
+          <cell r="C1678">
+            <v>895.31501976284335</v>
+          </cell>
+        </row>
+        <row r="1679">
+          <cell r="C1679">
+            <v>276.18043478260961</v>
+          </cell>
+        </row>
+        <row r="1680">
+          <cell r="C1680">
+            <v>88.625296442684657</v>
+          </cell>
+        </row>
+        <row r="1681">
+          <cell r="C1681">
+            <v>728.74940711462637</v>
+          </cell>
+        </row>
+        <row r="1682">
+          <cell r="C1682">
+            <v>-110.76796093931489</v>
+          </cell>
+        </row>
+        <row r="1683">
+          <cell r="C1683">
+            <v>599.9940711462491</v>
+          </cell>
+        </row>
+        <row r="1684">
+          <cell r="C1684">
+            <v>144.43438735177665</v>
+          </cell>
+        </row>
+        <row r="1685">
+          <cell r="C1685">
+            <v>21.196442687751187</v>
+          </cell>
+        </row>
+        <row r="1686">
+          <cell r="C1686">
+            <v>2.3168454733638555</v>
+          </cell>
+        </row>
+        <row r="1687">
+          <cell r="C1687">
+            <v>-243.23833992095228</v>
+          </cell>
+        </row>
+        <row r="1688">
+          <cell r="C1688">
+            <v>48.168097120270886</v>
+          </cell>
+        </row>
+        <row r="1689">
+          <cell r="C1689">
+            <v>-220.94584980237141</v>
+          </cell>
+        </row>
+        <row r="1690">
+          <cell r="C1690">
+            <v>93.087747035576285</v>
+          </cell>
+        </row>
+        <row r="1691">
+          <cell r="C1691">
+            <v>125.31679841897085</v>
+          </cell>
+        </row>
+        <row r="1692">
+          <cell r="C1692">
+            <v>426.82173913043766</v>
+          </cell>
+        </row>
+        <row r="1693">
+          <cell r="C1693">
+            <v>-114.7940711462436</v>
+          </cell>
+        </row>
+        <row r="1694">
+          <cell r="C1694">
+            <v>-590.66637991164748</v>
+          </cell>
+        </row>
+        <row r="1695">
+          <cell r="C1695">
+            <v>310.87924901185988</v>
+          </cell>
+        </row>
+        <row r="1696">
+          <cell r="C1696">
+            <v>514.7916996047461</v>
+          </cell>
+        </row>
+        <row r="1697">
+          <cell r="C1697">
+            <v>509.5391304347786</v>
+          </cell>
+        </row>
+        <row r="1698">
+          <cell r="C1698">
+            <v>358.61091661961109</v>
+          </cell>
+        </row>
+        <row r="1699">
+          <cell r="C1699">
+            <v>-21.56608319216798</v>
+          </cell>
+        </row>
+        <row r="1700">
+          <cell r="C1700">
+            <v>665.82699040090279</v>
+          </cell>
+        </row>
+        <row r="1701">
+          <cell r="C1701">
+            <v>400.06442687747176</v>
+          </cell>
+        </row>
+        <row r="1702">
+          <cell r="C1702">
+            <v>723.46877470355503</v>
+          </cell>
+        </row>
+        <row r="1703">
+          <cell r="C1703">
+            <v>-0.31501976284380362</v>
+          </cell>
+        </row>
+        <row r="1704">
+          <cell r="C1704">
+            <v>99.103557312249677</v>
+          </cell>
+        </row>
+        <row r="1705">
+          <cell r="C1705">
+            <v>116.27984189723452</v>
+          </cell>
+        </row>
+        <row r="1706">
+          <cell r="C1706">
+            <v>441.51464775633019</v>
+          </cell>
+        </row>
+        <row r="1707">
+          <cell r="C1707">
+            <v>-61.85513833991854</v>
+          </cell>
+        </row>
+        <row r="1708">
+          <cell r="C1708">
+            <v>-98.365612648225124</v>
+          </cell>
+        </row>
+        <row r="1709">
+          <cell r="C1709">
+            <v>743.76126482213795</v>
+          </cell>
+        </row>
+        <row r="1710">
+          <cell r="C1710">
+            <v>100.5121023903655</v>
+          </cell>
+        </row>
+        <row r="1711">
+          <cell r="C1711">
+            <v>-245.71846414455308</v>
+          </cell>
+        </row>
+        <row r="1712">
+          <cell r="C1712">
+            <v>429.90525127047363</v>
+          </cell>
+        </row>
+        <row r="1713">
+          <cell r="C1713">
+            <v>-119.72371541502207</v>
+          </cell>
+        </row>
+        <row r="1714">
+          <cell r="C1714">
+            <v>-90.38379446640829</v>
+          </cell>
+        </row>
+        <row r="1715">
+          <cell r="C1715">
+            <v>636.5675889328113</v>
+          </cell>
+        </row>
+        <row r="1716">
+          <cell r="C1716">
+            <v>48.653315766355945</v>
+          </cell>
+        </row>
+        <row r="1717">
+          <cell r="C1717">
+            <v>497.14268774703214</v>
+          </cell>
+        </row>
+        <row r="1718">
+          <cell r="C1718">
+            <v>52.413043478257578</v>
+          </cell>
+        </row>
+        <row r="1719">
+          <cell r="C1719">
+            <v>366.20415019762527</v>
+          </cell>
+        </row>
+        <row r="1720">
+          <cell r="C1720">
+            <v>-327.2637492941883</v>
+          </cell>
+        </row>
+        <row r="1721">
+          <cell r="C1721">
+            <v>-806.66324110671871</v>
+          </cell>
+        </row>
+        <row r="1722">
+          <cell r="C1722">
+            <v>11.251232825150964</v>
+          </cell>
+        </row>
+        <row r="1723">
+          <cell r="C1723">
+            <v>135.49168078298976</v>
+          </cell>
+        </row>
+        <row r="1724">
+          <cell r="C1724">
+            <v>-458.06866177300503</v>
+          </cell>
+        </row>
+        <row r="1725">
+          <cell r="C1725">
+            <v>-507.51106719368022</v>
+          </cell>
+        </row>
+        <row r="1726">
+          <cell r="C1726">
+            <v>-382.24031620552933</v>
+          </cell>
+        </row>
+        <row r="1727">
+          <cell r="C1727">
+            <v>-620.96699604743208</v>
+          </cell>
+        </row>
+        <row r="1728">
+          <cell r="C1728">
+            <v>-463.68098375054296</v>
+          </cell>
+        </row>
+        <row r="1729">
+          <cell r="C1729">
+            <v>-681.09644268774582</v>
+          </cell>
+        </row>
+        <row r="1730">
+          <cell r="C1730">
+            <v>-291.3233201581013</v>
+          </cell>
+        </row>
+        <row r="1731">
+          <cell r="C1731">
+            <v>-178.65402785620063</v>
+          </cell>
+        </row>
+        <row r="1732">
+          <cell r="C1732">
+            <v>351.88227881958255</v>
+          </cell>
+        </row>
+        <row r="1733">
+          <cell r="C1733">
+            <v>-253.50889328062885</v>
+          </cell>
+        </row>
+        <row r="1734">
+          <cell r="C1734">
+            <v>293.91724073028718</v>
+          </cell>
+        </row>
+        <row r="1735">
+          <cell r="C1735">
+            <v>1030.2341238471658</v>
+          </cell>
+        </row>
+        <row r="1736">
+          <cell r="C1736">
+            <v>466.5617730096028</v>
+          </cell>
+        </row>
+        <row r="1737">
+          <cell r="C1737">
+            <v>332.96403162055572</v>
+          </cell>
+        </row>
+        <row r="1738">
+          <cell r="C1738">
+            <v>127.89308300395533</v>
+          </cell>
+        </row>
+        <row r="1739">
+          <cell r="C1739">
+            <v>1042.498221343878</v>
+          </cell>
+        </row>
+        <row r="1740">
+          <cell r="C1740">
+            <v>724.38516531777509</v>
+          </cell>
+        </row>
+        <row r="1741">
+          <cell r="C1741">
+            <v>92.999999999999204</v>
+          </cell>
+        </row>
+        <row r="1742">
+          <cell r="C1742">
+            <v>448.41501976283917</v>
+          </cell>
+        </row>
+        <row r="1743">
+          <cell r="C1743">
+            <v>196.60974025974224</v>
+          </cell>
+        </row>
+        <row r="1744">
+          <cell r="C1744">
+            <v>542.99253816358896</v>
+          </cell>
+        </row>
+        <row r="1745">
+          <cell r="C1745">
+            <v>67.100454545457069</v>
+          </cell>
+        </row>
+        <row r="1746">
+          <cell r="C1746">
+            <v>139.18847818847553</v>
+          </cell>
+        </row>
+        <row r="1747">
+          <cell r="C1747">
+            <v>899.91592617908395</v>
+          </cell>
+        </row>
+        <row r="1748">
+          <cell r="C1748">
+            <v>-436.86517316017921</v>
+          </cell>
+        </row>
+        <row r="1749">
+          <cell r="C1749">
+            <v>-388.81060606060805</v>
+          </cell>
+        </row>
+        <row r="1750">
+          <cell r="C1750">
+            <v>599.73138528138315</v>
+          </cell>
+        </row>
+        <row r="1751">
+          <cell r="C1751">
+            <v>340.8590909090949</v>
+          </cell>
+        </row>
+        <row r="1752">
+          <cell r="C1752">
+            <v>461.48358863359317</v>
+          </cell>
+        </row>
+        <row r="1753">
+          <cell r="C1753">
+            <v>1558.0575757575707</v>
+          </cell>
+        </row>
+        <row r="1754">
+          <cell r="C1754">
+            <v>-184.00316205533386</v>
+          </cell>
+        </row>
+        <row r="1755">
+          <cell r="C1755">
+            <v>94.541142191140125</v>
+          </cell>
+        </row>
+        <row r="1756">
+          <cell r="C1756">
+            <v>339.27686217291512</v>
+          </cell>
+        </row>
+        <row r="1757">
+          <cell r="C1757">
+            <v>-219.11632867133358</v>
+          </cell>
+        </row>
+        <row r="1758">
+          <cell r="C1758">
+            <v>-836.49893439893003</v>
+          </cell>
+        </row>
+        <row r="1759">
+          <cell r="C1759">
+            <v>-449.18120300751502</v>
+          </cell>
+        </row>
+        <row r="1760">
+          <cell r="C1760">
+            <v>-225.38525597591251</v>
+          </cell>
+        </row>
+        <row r="1761">
+          <cell r="C1761">
+            <v>-600.86363636363785</v>
+          </cell>
+        </row>
+        <row r="1762">
+          <cell r="C1762">
+            <v>-228.19480519480385</v>
+          </cell>
+        </row>
+        <row r="1763">
+          <cell r="C1763">
+            <v>-496.23545454545888</v>
+          </cell>
+        </row>
+        <row r="1764">
+          <cell r="C1764">
+            <v>-334.15347430347038</v>
+          </cell>
+        </row>
+        <row r="1765">
+          <cell r="C1765">
+            <v>-605.83939393939204</v>
+          </cell>
+        </row>
+        <row r="1766">
+          <cell r="C1766">
+            <v>288.35753724536153</v>
+          </cell>
+        </row>
+        <row r="1767">
+          <cell r="C1767">
+            <v>-185.87144522144672</v>
+          </cell>
+        </row>
+        <row r="1768">
+          <cell r="C1768">
+            <v>-780.38397698792824</v>
+          </cell>
+        </row>
+        <row r="1769">
+          <cell r="C1769">
+            <v>-48.68276223776229</v>
+          </cell>
+        </row>
+        <row r="1770">
+          <cell r="C1770">
+            <v>-590.20853146853551</v>
+          </cell>
+        </row>
+        <row r="1771">
+          <cell r="C1771">
+            <v>-754.22204216836008</v>
+          </cell>
+        </row>
+        <row r="1772">
+          <cell r="C1772">
+            <v>237.79701827158715</v>
+          </cell>
+        </row>
+        <row r="1773">
+          <cell r="C1773">
+            <v>-11.885780885776967</v>
+          </cell>
+        </row>
+        <row r="1774">
+          <cell r="C1774">
+            <v>-647.59136696636619</v>
+          </cell>
+        </row>
+        <row r="1775">
+          <cell r="C1775">
+            <v>-573.05713286712989</v>
+          </cell>
+        </row>
+        <row r="1776">
+          <cell r="C1776">
+            <v>-363.02018759018733</v>
+          </cell>
+        </row>
+        <row r="1777">
+          <cell r="C1777">
+            <v>-319.32121212121024</v>
+          </cell>
+        </row>
+        <row r="1778">
+          <cell r="C1778">
+            <v>9.0106063984349021</v>
+          </cell>
+        </row>
+        <row r="1779">
+          <cell r="C1779">
+            <v>-290.97284382284261</v>
+          </cell>
+        </row>
+        <row r="1780">
+          <cell r="C1780">
+            <v>-754.74062034456301</v>
+          </cell>
+        </row>
+        <row r="1781">
+          <cell r="C1781">
+            <v>-604.14430069930472</v>
+          </cell>
+        </row>
+        <row r="1782">
+          <cell r="C1782">
+            <v>-324.12671328671718</v>
+          </cell>
+        </row>
+        <row r="1783">
+          <cell r="C1783">
+            <v>-661.87938482569893</v>
+          </cell>
+        </row>
+        <row r="1784">
+          <cell r="C1784">
+            <v>-245.27640830183918</v>
+          </cell>
+        </row>
+        <row r="1785">
+          <cell r="C1785">
+            <v>216.37645687645431</v>
+          </cell>
+        </row>
+        <row r="1786">
+          <cell r="C1786">
+            <v>-97.157800532802867</v>
+          </cell>
+        </row>
+        <row r="1787">
+          <cell r="C1787">
+            <v>-373.96010489510172</v>
+          </cell>
+        </row>
+        <row r="1788">
+          <cell r="C1788">
+            <v>170.49519702520092</v>
+          </cell>
+        </row>
+        <row r="1789">
+          <cell r="C1789">
+            <v>-91.034498834503893</v>
+          </cell>
+        </row>
+        <row r="1790">
+          <cell r="C1790">
+            <v>-145.81195027194849</v>
+          </cell>
+        </row>
+        <row r="1791">
+          <cell r="C1791">
+            <v>-157.14417249417511</v>
+          </cell>
+        </row>
+        <row r="1792">
+          <cell r="C1792">
+            <v>-522.62873223268411</v>
+          </cell>
+        </row>
+        <row r="1793">
+          <cell r="C1793">
+            <v>-925.16877622377297</v>
+          </cell>
+        </row>
+        <row r="1794">
+          <cell r="C1794">
+            <v>-540.50433566433617</v>
+          </cell>
+        </row>
+        <row r="1795">
+          <cell r="C1795">
+            <v>-458.11015405647527</v>
+          </cell>
+        </row>
+        <row r="1796">
+          <cell r="C1796">
+            <v>-495.73095375638513</v>
+          </cell>
+        </row>
+        <row r="1797">
+          <cell r="C1797">
+            <v>-456.05990675990097</v>
+          </cell>
+        </row>
+        <row r="1798">
+          <cell r="C1798">
+            <v>-749.35780053279586</v>
+          </cell>
+        </row>
+        <row r="1799">
+          <cell r="C1799">
+            <v>-524.61473776223602</v>
+          </cell>
+        </row>
+        <row r="1800">
+          <cell r="C1800">
+            <v>-967.82971879971603</v>
+          </cell>
+        </row>
+        <row r="1801">
+          <cell r="C1801">
+            <v>-721.45459725459614</v>
+          </cell>
+        </row>
+        <row r="1802">
+          <cell r="C1802">
+            <v>-456.39884485884261</v>
+          </cell>
+        </row>
+        <row r="1803">
+          <cell r="C1803">
+            <v>-619.91689976689804</v>
+          </cell>
+        </row>
+        <row r="1804">
+          <cell r="C1804">
+            <v>225.3607782568281</v>
+          </cell>
+        </row>
+        <row r="1805">
+          <cell r="C1805">
+            <v>-506.46248251748398</v>
+          </cell>
+        </row>
+        <row r="1806">
+          <cell r="C1806">
+            <v>-305.01832167831662</v>
+          </cell>
+        </row>
+        <row r="1807">
+          <cell r="C1807">
+            <v>-87.626937273249041</v>
+          </cell>
+        </row>
+        <row r="1808">
+          <cell r="C1808">
+            <v>-244.5129402883731</v>
+          </cell>
+        </row>
+        <row r="1809">
+          <cell r="C1809">
+            <v>-29.119300699298947</v>
+          </cell>
+        </row>
+        <row r="1810">
+          <cell r="C1810">
+            <v>-159.8527500277537</v>
+          </cell>
+        </row>
+        <row r="1811">
+          <cell r="C1811">
+            <v>-230.48446063196184</v>
+          </cell>
+        </row>
+        <row r="1812">
+          <cell r="C1812">
+            <v>178.19385022384404</v>
+          </cell>
+        </row>
+        <row r="1813">
+          <cell r="C1813">
+            <v>-34.121263921270042</v>
+          </cell>
+        </row>
+        <row r="1814">
+          <cell r="C1814">
+            <v>537.44707043443623</v>
+          </cell>
+        </row>
+        <row r="1815">
+          <cell r="C1815">
+            <v>694.0806785806783</v>
+          </cell>
+        </row>
+        <row r="1816">
+          <cell r="C1816">
+            <v>-96.502858106802023</v>
+          </cell>
+        </row>
+        <row r="1817">
+          <cell r="C1817">
+            <v>381.49594794094719</v>
+          </cell>
+        </row>
+        <row r="1818">
+          <cell r="C1818">
+            <v>84.785045325044166</v>
+          </cell>
+        </row>
+        <row r="1819">
+          <cell r="C1819">
+            <v>170.47292804661288</v>
+          </cell>
+        </row>
+        <row r="1820">
+          <cell r="C1820">
+            <v>188.89951762407691</v>
+          </cell>
+        </row>
+        <row r="1821">
+          <cell r="C1821">
+            <v>88.023123543122892</v>
+          </cell>
+        </row>
+        <row r="1822">
+          <cell r="C1822">
+            <v>-232.57942857796252</v>
+          </cell>
+        </row>
+        <row r="1823">
+          <cell r="C1823">
+            <v>-340.54641349391773</v>
+          </cell>
+        </row>
+        <row r="1824">
+          <cell r="C1824">
+            <v>-218.49470196470611</v>
+          </cell>
+        </row>
+        <row r="1825">
+          <cell r="C1825">
+            <v>257.97132867132586</v>
+          </cell>
+        </row>
+        <row r="1826">
+          <cell r="C1826">
+            <v>-334.83646669120071</v>
+          </cell>
+        </row>
+        <row r="1827">
+          <cell r="C1827">
+            <v>-288.64151774151878</v>
+          </cell>
+        </row>
+        <row r="1828">
+          <cell r="C1828">
+            <v>-96.936424540372855</v>
+          </cell>
+        </row>
+        <row r="1829">
+          <cell r="C1829">
+            <v>387.21412975912426</v>
+          </cell>
+        </row>
+        <row r="1830">
+          <cell r="C1830">
+            <v>64.739927479929065</v>
+          </cell>
+        </row>
+        <row r="1831">
+          <cell r="C1831">
+            <v>-189.95564338196095</v>
+          </cell>
+        </row>
+        <row r="1832">
+          <cell r="C1832">
+            <v>-376.65317597861008</v>
+          </cell>
+        </row>
+        <row r="1833">
+          <cell r="C1833">
+            <v>231.45342657342485</v>
+          </cell>
+        </row>
+        <row r="1834">
+          <cell r="C1834">
+            <v>194.45628146363742</v>
+          </cell>
+        </row>
+        <row r="1835">
+          <cell r="C1835">
+            <v>-238.71471186221697</v>
+          </cell>
+        </row>
+        <row r="1836">
+          <cell r="C1836">
+            <v>-756.58392755392492</v>
+          </cell>
+        </row>
+        <row r="1837">
+          <cell r="C1837">
+            <v>-511.75089355089108</v>
+          </cell>
+        </row>
+        <row r="1838">
+          <cell r="C1838">
+            <v>-218.28866988253526</v>
+          </cell>
+        </row>
+        <row r="1839">
+          <cell r="C1839">
+            <v>-319.7073038073047</v>
+          </cell>
+        </row>
+        <row r="1840">
+          <cell r="C1840">
+            <v>14.578277424330963</v>
+          </cell>
+        </row>
+        <row r="1841">
+          <cell r="C1841">
+            <v>592.07540922040516</v>
+          </cell>
+        </row>
+        <row r="1842">
+          <cell r="C1842">
+            <v>-124.41697487697593</v>
+          </cell>
+        </row>
+        <row r="1843">
+          <cell r="C1843">
+            <v>-240.73342115974265</v>
+          </cell>
+        </row>
+        <row r="1844">
+          <cell r="C1844">
+            <v>-229.79021301564489</v>
+          </cell>
+        </row>
+        <row r="1845">
+          <cell r="C1845">
+            <v>-100.85633773633913</v>
+          </cell>
+        </row>
+        <row r="1846">
+          <cell r="C1846">
+            <v>139.55055755790727</v>
+          </cell>
+        </row>
+        <row r="1847">
+          <cell r="C1847">
+            <v>-375.09662069412707</v>
+          </cell>
+        </row>
+        <row r="1848">
+          <cell r="C1848">
+            <v>38.286442816438921</v>
+          </cell>
+        </row>
+        <row r="1849">
+          <cell r="C1849">
+            <v>-175.57412587412296</v>
+          </cell>
+        </row>
+        <row r="1850">
+          <cell r="C1850">
+            <v>-216.6144786953007</v>
+          </cell>
+        </row>
+        <row r="1851">
+          <cell r="C1851">
+            <v>-428.53390313390059</v>
+          </cell>
+        </row>
+        <row r="1852">
+          <cell r="C1852">
+            <v>-604.50267495661706</v>
+          </cell>
+        </row>
+        <row r="1853">
+          <cell r="C1853">
+            <v>-72.623917378912665</v>
+          </cell>
+        </row>
+        <row r="1854">
+          <cell r="C1854">
+            <v>239.38672882673313</v>
+          </cell>
+        </row>
+        <row r="1855">
+          <cell r="C1855">
+            <v>263.08139365508214</v>
+          </cell>
+        </row>
+        <row r="1856">
+          <cell r="C1856">
+            <v>407.54312031768518</v>
+          </cell>
+        </row>
+        <row r="1857">
+          <cell r="C1857">
+            <v>121.04682724683198</v>
+          </cell>
+        </row>
+        <row r="1858">
+          <cell r="C1858">
+            <v>-409.57835982100323</v>
+          </cell>
+        </row>
+        <row r="1859">
+          <cell r="C1859">
+            <v>75.772907925404979</v>
+          </cell>
+        </row>
+        <row r="1860">
+          <cell r="C1860">
+            <v>152.69385022385018</v>
+          </cell>
+        </row>
+        <row r="1861">
+          <cell r="C1861">
+            <v>107.30848282152715</v>
+          </cell>
+        </row>
+        <row r="1862">
+          <cell r="C1862">
+            <v>221.04201376553237</v>
+          </cell>
+        </row>
+        <row r="1863">
+          <cell r="C1863">
+            <v>219.00048840048453</v>
+          </cell>
+        </row>
+        <row r="1864">
+          <cell r="C1864">
+            <v>160.21521978022474</v>
+          </cell>
+        </row>
+        <row r="1865">
+          <cell r="C1865">
+            <v>151.89108262108675</v>
+          </cell>
+        </row>
+        <row r="1866">
+          <cell r="C1866">
+            <v>388.04854700855117</v>
+          </cell>
+        </row>
+        <row r="1867">
+          <cell r="C1867">
+            <v>63.912895486580965</v>
+          </cell>
+        </row>
+        <row r="1868">
+          <cell r="C1868">
+            <v>616.206453651022</v>
+          </cell>
+        </row>
+        <row r="1869">
+          <cell r="C1869">
+            <v>-109.44244548044117</v>
+          </cell>
+        </row>
+        <row r="1870">
+          <cell r="C1870">
+            <v>140.35730451466225</v>
+          </cell>
+        </row>
+        <row r="1871">
+          <cell r="C1871">
+            <v>-57.485425407921184</v>
+          </cell>
+        </row>
+        <row r="1872">
+          <cell r="C1872">
+            <v>-183.8081339031321</v>
+          </cell>
+        </row>
+        <row r="1873">
+          <cell r="C1873">
+            <v>-277.10903010033178</v>
+          </cell>
+        </row>
+        <row r="1874">
+          <cell r="C1874">
+            <v>390.77323906198217</v>
+          </cell>
+        </row>
+        <row r="1875">
+          <cell r="C1875">
+            <v>562.26239316239639</v>
+          </cell>
+        </row>
+        <row r="1876">
+          <cell r="C1876">
+            <v>419.36041585865087</v>
+          </cell>
+        </row>
+        <row r="1877">
+          <cell r="C1877">
+            <v>381.64571225070677</v>
+          </cell>
+        </row>
+        <row r="1878">
+          <cell r="C1878">
+            <v>1041.8900854700851</v>
+          </cell>
+        </row>
+        <row r="1879">
+          <cell r="C1879">
+            <v>546.23475783475919</v>
+          </cell>
+        </row>
+        <row r="1880">
+          <cell r="C1880">
+            <v>511.11121555578279</v>
+          </cell>
+        </row>
+        <row r="1881">
+          <cell r="C1881">
+            <v>401.01114426314484</v>
+          </cell>
+        </row>
+        <row r="1882">
+          <cell r="C1882">
+            <v>360.00801880036943</v>
+          </cell>
+        </row>
+        <row r="1883">
+          <cell r="C1883">
+            <v>688.99303613053917</v>
+          </cell>
+        </row>
+        <row r="1884">
+          <cell r="C1884">
+            <v>-268.7497293447268</v>
+          </cell>
+        </row>
+        <row r="1885">
+          <cell r="C1885">
+            <v>-362.51672240802458</v>
+          </cell>
+        </row>
+        <row r="1886">
+          <cell r="C1886">
+            <v>-400.08676093801785</v>
+          </cell>
+        </row>
+        <row r="1887">
+          <cell r="C1887">
+            <v>-300.27606837606527</v>
+          </cell>
+        </row>
+        <row r="1888">
+          <cell r="C1888">
+            <v>-721.60892803274692</v>
+          </cell>
+        </row>
+        <row r="1889">
+          <cell r="C1889">
+            <v>-292.5468803418853</v>
+          </cell>
+        </row>
+        <row r="1890">
+          <cell r="C1890">
+            <v>-94.900683760680067</v>
+          </cell>
+        </row>
+        <row r="1891">
+          <cell r="C1891">
+            <v>95.215185185179962</v>
+          </cell>
+        </row>
+        <row r="1892">
+          <cell r="C1892">
+            <v>-326.01962056462617</v>
+          </cell>
+        </row>
+        <row r="1893">
+          <cell r="C1893">
+            <v>-558.36791556592129</v>
+          </cell>
+        </row>
+        <row r="1894">
+          <cell r="C1894">
+            <v>-65.626703421853563</v>
+          </cell>
+        </row>
+        <row r="1895">
+          <cell r="C1895">
+            <v>-342.83108974358629</v>
+          </cell>
+        </row>
+        <row r="1896">
+          <cell r="C1896">
+            <v>31.737678062679606</v>
+          </cell>
+        </row>
+        <row r="1897">
+          <cell r="C1897">
+            <v>-389.03338907469083</v>
+          </cell>
+        </row>
+        <row r="1898">
+          <cell r="C1898">
+            <v>125.84593136966737</v>
+          </cell>
+        </row>
+        <row r="1899">
+          <cell r="C1899">
+            <v>-336.69145299145021</v>
+          </cell>
+        </row>
+        <row r="1900">
+          <cell r="C1900">
+            <v>308.57657766525585</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,13 +1739,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ED2674-9BC1-4A35-9507-6A702DF78D1D}">
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="192" workbookViewId="0">
+      <selection activeCell="H257" sqref="H257"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -448,19 +1758,22 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -470,17 +1783,18 @@
       <c r="C2">
         <v>50.42</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2913</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2926.46</v>
       </c>
-      <c r="G2">
-        <v>-85.669178571428574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1">
+        <f>[1]Hoja3!C1645</f>
+        <v>-485.40513833991918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -490,17 +1804,18 @@
       <c r="C3">
         <v>50.98</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2951.86</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2956.31</v>
       </c>
-      <c r="G3">
-        <v>3.7268181818181887</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1">
+        <f>[1]Hoja3!C1646</f>
+        <v>-196.88752615670535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -510,17 +1825,18 @@
       <c r="C4">
         <v>51.51</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2959.01</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2958.25</v>
       </c>
-      <c r="G4">
-        <v>-1.4704545454545439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <f>[1]Hoja3!C1647</f>
+        <v>-1.9822446432253855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -530,17 +1846,18 @@
       <c r="C5">
         <v>52.1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2926.62</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2887.82</v>
       </c>
-      <c r="G5">
-        <v>-17.700150793650806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <f>[1]Hoja3!C1648</f>
+        <v>173.53994290733658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -550,17 +1867,18 @@
       <c r="C6">
         <v>52.36</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2858.94</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2853.33</v>
       </c>
-      <c r="G6">
-        <v>-91.923834776334772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <f>[1]Hoja3!C1649</f>
+        <v>-253.42173913042916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2003</v>
       </c>
@@ -570,17 +1888,18 @@
       <c r="C7">
         <v>52.33</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2826.95</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2817.32</v>
       </c>
-      <c r="G7">
-        <v>-22.937777777777782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <f>[1]Hoja3!C1650</f>
+        <v>386.98691887822633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -590,17 +1909,18 @@
       <c r="C8">
         <v>52.26</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2858.82</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2880.4</v>
       </c>
-      <c r="G8">
-        <v>-64.613809523809508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <f>[1]Hoja3!C1651</f>
+        <v>297.68893280632074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2003</v>
       </c>
@@ -610,17 +1930,18 @@
       <c r="C9">
         <v>52.42</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2867.29</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2832.94</v>
       </c>
-      <c r="G9">
-        <v>-27.11042207792206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <f>[1]Hoja3!C1652</f>
+        <v>-102.98515276993294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -630,17 +1951,18 @@
       <c r="C10">
         <v>52.53</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2840.08</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2889.39</v>
       </c>
-      <c r="G10">
-        <v>-54.484949494949511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <f>[1]Hoja3!C1653</f>
+        <v>-117.8140316205513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -650,17 +1972,18 @@
       <c r="C11">
         <v>52.56</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2876.2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2884.17</v>
       </c>
-      <c r="G11">
-        <v>-27.236704545454529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <f>[1]Hoja3!C1654</f>
+        <v>281.36047430830013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -670,17 +1993,18 @@
       <c r="C12">
         <v>52.75</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2844.55</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2836.05</v>
       </c>
-      <c r="G12">
-        <v>36.426754329004325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="1">
+        <f>[1]Hoja3!C1655</f>
+        <v>529.72134387351389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2003</v>
       </c>
@@ -690,17 +2014,18 @@
       <c r="C13">
         <v>53.07</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2807.2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2778.21</v>
       </c>
-      <c r="G13">
-        <v>-31.676297619047631</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="1">
+        <f>[1]Hoja3!C1656</f>
+        <v>221.18893280632824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2004</v>
       </c>
@@ -711,16 +2036,21 @@
         <v>53.54</v>
       </c>
       <c r="D14">
+        <f>C14/C2-1</f>
+        <v>6.1880206267354243E-2</v>
+      </c>
+      <c r="E14">
         <v>2749.14</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2742.47</v>
       </c>
-      <c r="G14">
-        <v>-52.015845238095245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="1">
+        <f>[1]Hoja3!C1657</f>
+        <v>-224.33241106719299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2004</v>
       </c>
@@ -731,16 +2061,21 @@
         <v>54.18</v>
       </c>
       <c r="D15">
+        <f t="shared" ref="D15:D78" si="0">C15/C3-1</f>
+        <v>6.2769713613181732E-2</v>
+      </c>
+      <c r="E15">
         <v>2717.94</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2682.34</v>
       </c>
-      <c r="G15">
-        <v>-5.9310389610389649</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="1">
+        <f>[1]Hoja3!C1658</f>
+        <v>-251.22408742152766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -751,16 +2086,21 @@
         <v>54.71</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
+        <v>6.212385944476817E-2</v>
+      </c>
+      <c r="E16">
         <v>2670.8</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2678.16</v>
       </c>
-      <c r="G16">
-        <v>-83.496121212121182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="1">
+        <f>[1]Hoja3!C1659</f>
+        <v>-387.39229249011555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2004</v>
       </c>
@@ -771,16 +2111,21 @@
         <v>54.96</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
+        <v>5.4894433781190077E-2</v>
+      </c>
+      <c r="E17">
         <v>2639.6</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2646.99</v>
       </c>
-      <c r="G17">
-        <v>-68.951776231704784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="1">
+        <f>[1]Hoja3!C1660</f>
+        <v>230.90711462450327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2004</v>
       </c>
@@ -791,16 +2136,21 @@
         <v>55.17</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
+        <v>5.3666921313980209E-2</v>
+      </c>
+      <c r="E18">
         <v>2719.43</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2724.92</v>
       </c>
-      <c r="G18">
-        <v>-54.407431251288379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="1">
+        <f>[1]Hoja3!C1661</f>
+        <v>207.58735177866129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2004</v>
       </c>
@@ -811,16 +2161,21 @@
         <v>55.51</v>
       </c>
       <c r="D19">
+        <f t="shared" si="0"/>
+        <v>6.076820179629272E-2</v>
+      </c>
+      <c r="E19">
         <v>2716.56</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2699.58</v>
       </c>
-      <c r="G19">
-        <v>-39.863086270871975</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="1">
+        <f>[1]Hoja3!C1662</f>
+        <v>-65.887107095803003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2004</v>
       </c>
@@ -831,16 +2186,21 @@
         <v>55.49</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
+        <v>6.1806352851129009E-2</v>
+      </c>
+      <c r="E20">
         <v>2653.32</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2612.44</v>
       </c>
-      <c r="G20">
-        <v>-25.31874129045557</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="1">
+        <f>[1]Hoja3!C1663</f>
+        <v>57.752569169965227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2004</v>
       </c>
@@ -851,16 +2211,21 @@
         <v>55.51</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
+        <v>5.8946966806562306E-2</v>
+      </c>
+      <c r="E21">
         <v>2598.59</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2551.4299999999998</v>
       </c>
-      <c r="G21">
-        <v>-10.774396310039167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="1">
+        <f>[1]Hoja3!C1664</f>
+        <v>-22.658385093167908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2004</v>
       </c>
@@ -871,16 +2236,21 @@
         <v>55.67</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
+        <v>5.9775366457262447E-2</v>
+      </c>
+      <c r="E22">
         <v>2552.7800000000002</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2595.17</v>
       </c>
-      <c r="G22">
-        <v>3.7699486703772358</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="1">
+        <f>[1]Hoja3!C1665</f>
+        <v>86.017786561266121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2004</v>
       </c>
@@ -891,16 +2261,21 @@
         <v>55.66</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
+        <v>5.8980213089802058E-2</v>
+      </c>
+      <c r="E23">
         <v>2580.6999999999998</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2575.19</v>
       </c>
-      <c r="G23">
-        <v>18.314293650793644</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="1">
+        <f>[1]Hoja3!C1666</f>
+        <v>-425.95770750987685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2004</v>
       </c>
@@ -911,16 +2286,21 @@
         <v>55.82</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
+        <v>5.8199052132701379E-2</v>
+      </c>
+      <c r="E24">
         <v>2530.19</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2479.1</v>
       </c>
-      <c r="G24">
-        <v>-4.2881998556998724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="1">
+        <f>[1]Hoja3!C1667</f>
+        <v>146.79407114624564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2004</v>
       </c>
@@ -931,16 +2311,21 @@
         <v>55.99</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
+        <v>5.5021669493122261E-2</v>
+      </c>
+      <c r="E25">
         <v>2411.37</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2389.75</v>
       </c>
-      <c r="G25">
-        <v>-16.706111111111113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="1">
+        <f>[1]Hoja3!C1668</f>
+        <v>-66.233794466404788</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2005</v>
       </c>
@@ -951,19 +2336,24 @@
         <v>56.45</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
+        <v>5.4351886440044961E-2</v>
+      </c>
+      <c r="E26">
         <v>2362.96</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2367.7600000000002</v>
       </c>
-      <c r="F26">
-        <v>63.92913618951016</v>
-      </c>
       <c r="G26">
-        <v>-13.214365079365081</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>63.928794139173448</v>
+      </c>
+      <c r="H26" s="1">
+        <f>[1]Hoja3!C1669</f>
+        <v>294.40395256916702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -974,19 +2364,24 @@
         <v>57.02</v>
       </c>
       <c r="D27">
+        <f t="shared" si="0"/>
+        <v>5.2417866371354815E-2</v>
+      </c>
+      <c r="E27">
         <v>2340.4899999999998</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2323.77</v>
       </c>
-      <c r="F27">
-        <v>64.088526804129913</v>
-      </c>
       <c r="G27">
-        <v>38.114330206830203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64.087411259841787</v>
+      </c>
+      <c r="H27" s="1">
+        <f>[1]Hoja3!C1670</f>
+        <v>79.927493606139933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -997,19 +2392,24 @@
         <v>57.46</v>
       </c>
       <c r="D28">
+        <f t="shared" si="0"/>
+        <v>5.0265033814659077E-2</v>
+      </c>
+      <c r="E28">
         <v>2353.71</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2376.48</v>
       </c>
-      <c r="F28">
-        <v>64.017313737697791</v>
-      </c>
       <c r="G28">
-        <v>89.443025493025488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64.039848479877179</v>
+      </c>
+      <c r="H28" s="1">
+        <f>[1]Hoja3!C1671</f>
+        <v>85.094071146240822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2005</v>
       </c>
@@ -1020,19 +2420,24 @@
         <v>57.72</v>
       </c>
       <c r="D29">
+        <f t="shared" si="0"/>
+        <v>5.0218340611353662E-2</v>
+      </c>
+      <c r="E29">
         <v>2350.0100000000002</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2348.3200000000002</v>
       </c>
-      <c r="F29">
-        <v>64.877557629290877</v>
-      </c>
       <c r="G29">
-        <v>140.77172077922077</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64.82151379072377</v>
+      </c>
+      <c r="H29" s="1">
+        <f>[1]Hoja3!C1672</f>
+        <v>334.78893280632724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -1043,19 +2448,24 @@
         <v>57.95</v>
       </c>
       <c r="D30">
+        <f t="shared" si="0"/>
+        <v>5.0389704549574033E-2</v>
+      </c>
+      <c r="E30">
         <v>2339.2199999999998</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2332.79</v>
       </c>
-      <c r="F30">
-        <v>63.940986111740941</v>
-      </c>
       <c r="G30">
-        <v>40.103383838383863</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>63.942365179978836</v>
+      </c>
+      <c r="H30" s="1">
+        <f>[1]Hoja3!C1673</f>
+        <v>338.21007905138777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2005</v>
       </c>
@@ -1066,19 +2476,24 @@
         <v>58.18</v>
       </c>
       <c r="D31">
+        <f t="shared" si="0"/>
+        <v>4.809944154206458E-2</v>
+      </c>
+      <c r="E31">
         <v>2331.79</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2331.81</v>
       </c>
-      <c r="F31">
-        <v>64.536652908836146</v>
-      </c>
       <c r="G31">
-        <v>-90.742037878787855</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64.528894168206605</v>
+      </c>
+      <c r="H31" s="1">
+        <f>[1]Hoja3!C1674</f>
+        <v>17.421983813283532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2005</v>
       </c>
@@ -1089,19 +2504,24 @@
         <v>58.21</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
+        <v>4.901784105244178E-2</v>
+      </c>
+      <c r="E32">
         <v>2323.38</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2308.4899999999998</v>
       </c>
-      <c r="F32">
-        <v>64.029127231369486</v>
-      </c>
       <c r="G32">
-        <v>37.393004329004299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64.022548325631419</v>
+      </c>
+      <c r="H32" s="1">
+        <f>[1]Hoja3!C1675</f>
+        <v>-145.61561264821785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2005</v>
       </c>
@@ -1112,19 +2532,24 @@
         <v>58.21</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
+        <v>4.8639884705458547E-2</v>
+      </c>
+      <c r="E33">
         <v>2306.19</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2304.3000000000002</v>
       </c>
-      <c r="F33">
-        <v>65.00753812530327</v>
-      </c>
       <c r="G33">
-        <v>-108.3175476190476</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64.985522112901222</v>
+      </c>
+      <c r="H33" s="1">
+        <f>[1]Hoja3!C1676</f>
+        <v>-96.268266516095082</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2005</v>
       </c>
@@ -1135,19 +2560,24 @@
         <v>58.46</v>
       </c>
       <c r="D34">
+        <f t="shared" si="0"/>
+        <v>5.0116759475480555E-2</v>
+      </c>
+      <c r="E34">
         <v>2294.52</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>2289.61</v>
       </c>
-      <c r="F34">
-        <v>64.821278383598013</v>
-      </c>
       <c r="G34">
-        <v>-82.616207142857121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64.915520384149985</v>
+      </c>
+      <c r="H34" s="1">
+        <f>[1]Hoja3!C1677</f>
+        <v>-199.63675889328329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2005</v>
       </c>
@@ -1158,19 +2588,24 @@
         <v>58.6</v>
       </c>
       <c r="D35">
+        <f t="shared" si="0"/>
+        <v>5.2820697089471791E-2</v>
+      </c>
+      <c r="E35">
         <v>2292.5500000000002</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2289.5700000000002</v>
       </c>
-      <c r="F35">
-        <v>64.961811239834574</v>
-      </c>
       <c r="G35">
-        <v>-56.914866666666647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64.955429084205903</v>
+      </c>
+      <c r="H35" s="1">
+        <f>[1]Hoja3!C1678</f>
+        <v>895.31501976284335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2005</v>
       </c>
@@ -1181,19 +2616,24 @@
         <v>58.66</v>
       </c>
       <c r="D36">
+        <f t="shared" si="0"/>
+        <v>5.0877821569329962E-2</v>
+      </c>
+      <c r="E36">
         <v>2279.85</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2274.04</v>
       </c>
-      <c r="F36">
-        <v>65.259286111205554</v>
-      </c>
       <c r="G36">
-        <v>-31.213526190476173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>65.244472953989188</v>
+      </c>
+      <c r="H36" s="1">
+        <f>[1]Hoja3!C1679</f>
+        <v>276.18043478260961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2005</v>
       </c>
@@ -1204,19 +2644,24 @@
         <v>58.7</v>
       </c>
       <c r="D37">
+        <f t="shared" si="0"/>
+        <v>4.8401500267905018E-2</v>
+      </c>
+      <c r="E37">
         <v>2278.91</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>2284.2199999999998</v>
       </c>
-      <c r="F37">
-        <v>66.986107117041087</v>
-      </c>
       <c r="G37">
-        <v>-5.5121857142856996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.983001710878625</v>
+      </c>
+      <c r="H37" s="1">
+        <f>[1]Hoja3!C1680</f>
+        <v>88.625296442684657</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2006</v>
       </c>
@@ -1227,19 +2672,24 @@
         <v>59.02</v>
       </c>
       <c r="D38">
+        <f t="shared" si="0"/>
+        <v>4.5527015057573061E-2</v>
+      </c>
+      <c r="E38">
         <v>2273.66</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2265.65</v>
       </c>
-      <c r="F38">
-        <v>66.65723770258451</v>
-      </c>
       <c r="G38">
-        <v>20.18915476190476</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.659004021216717</v>
+      </c>
+      <c r="H38" s="1">
+        <f>[1]Hoja3!C1681</f>
+        <v>728.74940711462637</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2006</v>
       </c>
@@ -1250,19 +2700,24 @@
         <v>59.41</v>
       </c>
       <c r="D39">
+        <f t="shared" si="0"/>
+        <v>4.1915117502630439E-2</v>
+      </c>
+      <c r="E39">
         <v>2256.2399999999998</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>2247.3200000000002</v>
       </c>
-      <c r="F39">
-        <v>67.311335798372113</v>
-      </c>
       <c r="G39">
-        <v>36.78607970006184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67.307804128378095</v>
+      </c>
+      <c r="H39" s="1">
+        <f>[1]Hoja3!C1682</f>
+        <v>-110.76796093931489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2006</v>
       </c>
@@ -1273,19 +2728,24 @@
         <v>59.83</v>
       </c>
       <c r="D40">
+        <f t="shared" si="0"/>
+        <v>4.1246084232509528E-2</v>
+      </c>
+      <c r="E40">
         <v>2262.36</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>2289.98</v>
       </c>
-      <c r="F40">
-        <v>67.821170556799487</v>
-      </c>
       <c r="G40">
-        <v>53.383004638218921</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67.795056164456895</v>
+      </c>
+      <c r="H40" s="1">
+        <f>[1]Hoja3!C1683</f>
+        <v>599.9940711462491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2006</v>
       </c>
@@ -1296,19 +2756,24 @@
         <v>60.09</v>
       </c>
       <c r="D41">
+        <f t="shared" si="0"/>
+        <v>4.1060291060291076E-2</v>
+      </c>
+      <c r="E41">
         <v>2334.29</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>2375.0300000000002</v>
       </c>
-      <c r="F41">
-        <v>67.262109261681346</v>
-      </c>
       <c r="G41">
-        <v>69.979929576376009</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67.256700250339989</v>
+      </c>
+      <c r="H41" s="1">
+        <f>[1]Hoja3!C1684</f>
+        <v>144.43438735177665</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2006</v>
       </c>
@@ -1319,19 +2784,24 @@
         <v>60.29</v>
       </c>
       <c r="D42">
+        <f t="shared" si="0"/>
+        <v>4.0379637618636721E-2</v>
+      </c>
+      <c r="E42">
         <v>2417.9899999999998</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>2482.41</v>
       </c>
-      <c r="F42">
-        <v>68.179683310226167</v>
-      </c>
       <c r="G42">
-        <v>86.576854514533096</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>68.182980010762961</v>
+      </c>
+      <c r="H42" s="1">
+        <f>[1]Hoja3!C1685</f>
+        <v>21.196442687751187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2006</v>
       </c>
@@ -1342,19 +2812,24 @@
         <v>60.48</v>
       </c>
       <c r="D43">
+        <f t="shared" si="0"/>
+        <v>3.9532485390168404E-2</v>
+      </c>
+      <c r="E43">
         <v>2542.2399999999998</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>2633.12</v>
       </c>
-      <c r="F43">
-        <v>67.791314495354712</v>
-      </c>
       <c r="G43">
-        <v>103.17377945269018</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67.783666856961304</v>
+      </c>
+      <c r="H43" s="1">
+        <f>[1]Hoja3!C1686</f>
+        <v>2.3168454733638555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2006</v>
       </c>
@@ -1365,19 +2840,24 @@
         <v>60.73</v>
       </c>
       <c r="D44">
+        <f t="shared" si="0"/>
+        <v>4.3291530664834044E-2</v>
+      </c>
+      <c r="E44">
         <v>2511.7399999999998</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>2426</v>
       </c>
-      <c r="F44">
-        <v>68.57383408267674</v>
-      </c>
       <c r="G44">
-        <v>119.77070439084727</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>68.568746417605752</v>
+      </c>
+      <c r="H44" s="1">
+        <f>[1]Hoja3!C1687</f>
+        <v>-243.23833992095228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2006</v>
       </c>
@@ -1388,19 +2868,24 @@
         <v>60.96</v>
       </c>
       <c r="D45">
+        <f t="shared" si="0"/>
+        <v>4.72427417969421E-2</v>
+      </c>
+      <c r="E45">
         <v>2389.65</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>2396.63</v>
       </c>
-      <c r="F45">
-        <v>69.509788102449761</v>
-      </c>
       <c r="G45">
-        <v>136.36762932900436</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>69.484806450759223</v>
+      </c>
+      <c r="H45" s="1">
+        <f>[1]Hoja3!C1688</f>
+        <v>48.168097120270886</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2006</v>
       </c>
@@ -1411,19 +2896,24 @@
         <v>61.14</v>
       </c>
       <c r="D46">
+        <f t="shared" si="0"/>
+        <v>4.5843311666096564E-2</v>
+      </c>
+      <c r="E46">
         <v>2398.88</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>2394.31</v>
       </c>
-      <c r="F46">
-        <v>70.141369041200633</v>
-      </c>
       <c r="G46">
-        <v>152.96455426716145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70.233473039950781</v>
+      </c>
+      <c r="H46" s="1">
+        <f>[1]Hoja3!C1689</f>
+        <v>-220.94584980237141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2006</v>
       </c>
@@ -1434,19 +2924,24 @@
         <v>61.05</v>
       </c>
       <c r="D47">
+        <f t="shared" si="0"/>
+        <v>4.180887372013653E-2</v>
+      </c>
+      <c r="E47">
         <v>2364.29</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>2315.38</v>
       </c>
-      <c r="F47">
-        <v>70.059788153136509</v>
-      </c>
       <c r="G47">
-        <v>169.56147920531853</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70.052959401849364</v>
+      </c>
+      <c r="H47" s="1">
+        <f>[1]Hoja3!C1690</f>
+        <v>93.087747035576285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2006</v>
       </c>
@@ -1457,19 +2952,24 @@
         <v>61.19</v>
       </c>
       <c r="D48">
+        <f t="shared" si="0"/>
+        <v>4.3129901125127823E-2</v>
+      </c>
+      <c r="E48">
         <v>2290.46</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>2300.42</v>
       </c>
-      <c r="F48">
-        <v>70.864969135934288</v>
-      </c>
       <c r="G48">
-        <v>186.15840414347562</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70.849513457274114</v>
+      </c>
+      <c r="H48" s="1">
+        <f>[1]Hoja3!C1691</f>
+        <v>125.31679841897085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2006</v>
       </c>
@@ -1480,19 +2980,24 @@
         <v>61.33</v>
       </c>
       <c r="D49">
+        <f t="shared" si="0"/>
+        <v>4.4804088586030577E-2</v>
+      </c>
+      <c r="E49">
         <v>2261.33526315789</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>2238.79</v>
       </c>
-      <c r="F49">
-        <v>70.403092635261601</v>
-      </c>
       <c r="G49">
-        <v>202.75532908163271</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70.400982070992015</v>
+      </c>
+      <c r="H49" s="1">
+        <f>[1]Hoja3!C1692</f>
+        <v>426.82173913043766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2007</v>
       </c>
@@ -1503,19 +3008,24 @@
         <v>61.8</v>
       </c>
       <c r="D50">
+        <f t="shared" si="0"/>
+        <v>4.7102677058624032E-2</v>
+      </c>
+      <c r="E50">
         <v>2237.06</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>2259.7199999999998</v>
       </c>
-      <c r="F50">
-        <v>70.798106801103117</v>
-      </c>
       <c r="G50">
-        <v>219.3522540197898</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70.804389270181275</v>
+      </c>
+      <c r="H50" s="1">
+        <f>[1]Hoja3!C1693</f>
+        <v>-114.7940711462436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2007</v>
       </c>
@@ -1526,19 +3036,24 @@
         <v>62.53</v>
       </c>
       <c r="D51">
+        <f t="shared" si="0"/>
+        <v>5.2516411378555894E-2</v>
+      </c>
+      <c r="E51">
         <v>2227.63</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>2224.12</v>
       </c>
-      <c r="F51">
-        <v>71.744870075964855</v>
-      </c>
       <c r="G51">
-        <v>235.94917895794688</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71.740569170410396</v>
+      </c>
+      <c r="H51" s="1">
+        <f>[1]Hoja3!C1694</f>
+        <v>-590.66637991164748</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2007</v>
       </c>
@@ -1549,19 +3064,24 @@
         <v>63.29</v>
       </c>
       <c r="D52">
+        <f t="shared" si="0"/>
+        <v>5.7830519806117309E-2</v>
+      </c>
+      <c r="E52">
         <v>2201.39</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>2190.3000000000002</v>
       </c>
-      <c r="F52">
-        <v>72.133654989148624</v>
-      </c>
       <c r="G52">
-        <v>252.54610389610389</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72.110996948179036</v>
+      </c>
+      <c r="H52" s="1">
+        <f>[1]Hoja3!C1695</f>
+        <v>310.87924901185988</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2007</v>
       </c>
@@ -1572,19 +3092,24 @@
         <v>63.85</v>
       </c>
       <c r="D53">
+        <f t="shared" si="0"/>
+        <v>6.2572807455483437E-2</v>
+      </c>
+      <c r="E53">
         <v>2144.6</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>2110.67</v>
       </c>
-      <c r="F53">
-        <v>71.303764497907878</v>
-      </c>
       <c r="G53">
-        <v>54.601497835497867</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71.30160355199763</v>
+      </c>
+      <c r="H53" s="1">
+        <f>[1]Hoja3!C1696</f>
+        <v>514.7916996047461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2007</v>
       </c>
@@ -1595,19 +3120,24 @@
         <v>64.05</v>
       </c>
       <c r="D54">
+        <f t="shared" si="0"/>
+        <v>6.2365234698954941E-2</v>
+      </c>
+      <c r="E54">
         <v>2007.91</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>1930.64</v>
       </c>
-      <c r="F54">
-        <v>72.386683377791257</v>
-      </c>
       <c r="G54">
-        <v>63.168579365079353</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72.395638509900664</v>
+      </c>
+      <c r="H54" s="1">
+        <f>[1]Hoja3!C1697</f>
+        <v>509.5391304347786</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2007</v>
       </c>
@@ -1618,19 +3148,24 @@
         <v>64.12</v>
       </c>
       <c r="D55">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-2</v>
+      </c>
+      <c r="E55">
         <v>1923.76</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>1960.61</v>
       </c>
-      <c r="F55">
-        <v>72.847086302100664</v>
-      </c>
       <c r="G55">
-        <v>56.18303370761182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72.841259834373005</v>
+      </c>
+      <c r="H55" s="1">
+        <f>[1]Hoja3!C1698</f>
+        <v>358.61091661961109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2007</v>
       </c>
@@ -1641,19 +3176,24 @@
         <v>64.23</v>
       </c>
       <c r="D56">
+        <f t="shared" si="0"/>
+        <v>5.7632142269059994E-2</v>
+      </c>
+      <c r="E56">
         <v>1950.87</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>1971.8</v>
       </c>
-      <c r="F56">
-        <v>72.867033146137757</v>
-      </c>
       <c r="G56">
-        <v>49.197488050144287</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72.863768795213417</v>
+      </c>
+      <c r="H56" s="1">
+        <f>[1]Hoja3!C1699</f>
+        <v>-21.56608319216798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2007</v>
       </c>
@@ -1664,19 +3204,24 @@
         <v>64.14</v>
       </c>
       <c r="D57">
+        <f t="shared" si="0"/>
+        <v>5.2165354330708569E-2</v>
+      </c>
+      <c r="E57">
         <v>2058.2800000000002</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>2173.17</v>
       </c>
-      <c r="F57">
-        <v>73.750992673157413</v>
-      </c>
       <c r="G57">
-        <v>42.211942392676754</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73.721097643682256</v>
+      </c>
+      <c r="H57" s="1">
+        <f>[1]Hoja3!C1700</f>
+        <v>665.82699040090279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2007</v>
       </c>
@@ -1687,19 +3232,24 @@
         <v>64.2</v>
       </c>
       <c r="D58">
+        <f t="shared" si="0"/>
+        <v>5.0049067713444639E-2</v>
+      </c>
+      <c r="E58">
         <v>2117.0500000000002</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>2023.19</v>
       </c>
-      <c r="F58">
-        <v>74.199500401083128</v>
-      </c>
       <c r="G58">
-        <v>35.226396735209221</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74.279898459955575</v>
+      </c>
+      <c r="H58" s="1">
+        <f>[1]Hoja3!C1701</f>
+        <v>400.06442687747176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2007</v>
       </c>
@@ -1710,19 +3260,24 @@
         <v>64.2</v>
       </c>
       <c r="D59">
+        <f t="shared" si="0"/>
+        <v>5.1597051597051635E-2</v>
+      </c>
+      <c r="E59">
         <v>2003.26</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>1999.44</v>
       </c>
-      <c r="F59">
-        <v>74.506084063941145</v>
-      </c>
       <c r="G59">
-        <v>28.240851077741688</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74.502990684082832</v>
+      </c>
+      <c r="H59" s="1">
+        <f>[1]Hoja3!C1702</f>
+        <v>723.46877470355503</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2007</v>
       </c>
@@ -1733,19 +3288,24 @@
         <v>64.510000000000005</v>
       </c>
       <c r="D60">
+        <f t="shared" si="0"/>
+        <v>5.4257231573786591E-2</v>
+      </c>
+      <c r="E60">
         <v>2047.72</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>2060.42</v>
       </c>
-      <c r="F60">
-        <v>75.176406953479642</v>
-      </c>
       <c r="G60">
-        <v>21.255305420274155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.155465863943505</v>
+      </c>
+      <c r="H60" s="1">
+        <f>[1]Hoja3!C1703</f>
+        <v>-0.31501976284380362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2007</v>
       </c>
@@ -1756,19 +3316,24 @@
         <v>64.819999999999993</v>
       </c>
       <c r="D61">
+        <f t="shared" si="0"/>
+        <v>5.6905266590575598E-2</v>
+      </c>
+      <c r="E61">
         <v>2014.2014999999999</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>2014.76</v>
       </c>
-      <c r="F61">
-        <v>74.876517060259602</v>
-      </c>
       <c r="G61">
-        <v>14.269759762806622</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74.873021610155405</v>
+      </c>
+      <c r="H61" s="1">
+        <f>[1]Hoja3!C1704</f>
+        <v>99.103557312249677</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2008</v>
       </c>
@@ -1779,19 +3344,24 @@
         <v>65.510000000000005</v>
       </c>
       <c r="D62">
+        <f t="shared" si="0"/>
+        <v>6.0032362459547128E-2</v>
+      </c>
+      <c r="E62">
         <v>1980.59</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>1939.6</v>
       </c>
-      <c r="F62">
-        <v>75.508096553353994</v>
-      </c>
       <c r="G62">
-        <v>7.2842141053390899</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.517236416863085</v>
+      </c>
+      <c r="H62" s="1">
+        <f>[1]Hoja3!C1705</f>
+        <v>116.27984189723452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2008</v>
       </c>
@@ -1802,19 +3372,24 @@
         <v>66.5</v>
       </c>
       <c r="D63">
+        <f t="shared" si="0"/>
+        <v>6.3489525027986549E-2</v>
+      </c>
+      <c r="E63">
         <v>1903.27</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>1843.59</v>
       </c>
-      <c r="F63">
-        <v>75.544679335336525</v>
-      </c>
       <c r="G63">
-        <v>0.29866844787155777</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.570811383309021</v>
+      </c>
+      <c r="H63" s="1">
+        <f>[1]Hoja3!C1706</f>
+        <v>441.51464775633019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2008</v>
       </c>
@@ -1825,19 +3400,24 @@
         <v>67.040000000000006</v>
       </c>
       <c r="D64">
+        <f t="shared" si="0"/>
+        <v>5.9251066519197426E-2</v>
+      </c>
+      <c r="E64">
         <v>1846.9</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>1821.6</v>
       </c>
-      <c r="F64">
-        <v>74.289962452840584</v>
-      </c>
       <c r="G64">
-        <v>-6.6868772095959743</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74.326660253017224</v>
+      </c>
+      <c r="H64" s="1">
+        <f>[1]Hoja3!C1707</f>
+        <v>-61.85513833991854</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2008</v>
       </c>
@@ -1848,19 +3428,24 @@
         <v>67.510000000000005</v>
       </c>
       <c r="D65">
+        <f t="shared" si="0"/>
+        <v>5.7321848081441029E-2</v>
+      </c>
+      <c r="E65">
         <v>1796.13</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>1780.21</v>
       </c>
-      <c r="F65">
-        <v>75.419625217822244</v>
-      </c>
       <c r="G65">
-        <v>-13.672422867063506</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.360117893020188</v>
+      </c>
+      <c r="H65" s="1">
+        <f>[1]Hoja3!C1708</f>
+        <v>-98.365612648225124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2008</v>
       </c>
@@ -1871,19 +3456,24 @@
         <v>68.14</v>
       </c>
       <c r="D66">
+        <f t="shared" si="0"/>
+        <v>6.385636221701807E-2</v>
+      </c>
+      <c r="E66">
         <v>1778.01</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>1744.01</v>
       </c>
-      <c r="F66">
-        <v>74.646407881903627</v>
-      </c>
       <c r="G66">
-        <v>-20.657968524531039</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74.656258308939343</v>
+      </c>
+      <c r="H66" s="1">
+        <f>[1]Hoja3!C1709</f>
+        <v>743.76126482213795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2008</v>
       </c>
@@ -1894,19 +3484,24 @@
         <v>68.73</v>
       </c>
       <c r="D67">
+        <f t="shared" si="0"/>
+        <v>7.1896444167186546E-2</v>
+      </c>
+      <c r="E67">
         <v>1712.28</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>1923.02</v>
       </c>
-      <c r="F67">
-        <v>74.988973004108288</v>
-      </c>
       <c r="G67">
-        <v>-27.643514181998572</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74.981115531515712</v>
+      </c>
+      <c r="H67" s="1">
+        <f>[1]Hoja3!C1710</f>
+        <v>100.5121023903655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2008</v>
       </c>
@@ -1917,19 +3512,24 @@
         <v>69.06</v>
       </c>
       <c r="D68">
+        <f t="shared" si="0"/>
+        <v>7.5198505371321778E-2</v>
+      </c>
+      <c r="E68">
         <v>1783.09</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>1792.24</v>
       </c>
-      <c r="F68">
-        <v>76.127682373327829</v>
-      </c>
       <c r="G68">
-        <v>-34.629059839466102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76.122659670790853</v>
+      </c>
+      <c r="H68" s="1">
+        <f>[1]Hoja3!C1711</f>
+        <v>-245.71846414455308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2008</v>
       </c>
@@ -1940,19 +3540,24 @@
         <v>69.19</v>
       </c>
       <c r="D69">
+        <f t="shared" si="0"/>
+        <v>7.8734019332709737E-2</v>
+      </c>
+      <c r="E69">
         <v>1844.29</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>1932.2</v>
       </c>
-      <c r="F69">
-        <v>75.845126964430847</v>
-      </c>
       <c r="G69">
-        <v>-41.614605496933635</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.80689374595643</v>
+      </c>
+      <c r="H69" s="1">
+        <f>[1]Hoja3!C1712</f>
+        <v>429.90525127047363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2008</v>
       </c>
@@ -1963,19 +3568,24 @@
         <v>69.06</v>
       </c>
       <c r="D70">
+        <f t="shared" si="0"/>
+        <v>7.5700934579439272E-2</v>
+      </c>
+      <c r="E70">
         <v>2066.04</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>2174.62</v>
       </c>
-      <c r="F70">
-        <v>76.238804151975003</v>
-      </c>
       <c r="G70">
-        <v>-48.600151154401168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76.289029083387135</v>
+      </c>
+      <c r="H70" s="1">
+        <f>[1]Hoja3!C1713</f>
+        <v>-119.72371541502207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2008</v>
       </c>
@@ -1986,19 +3596,24 @@
         <v>69.3</v>
       </c>
       <c r="D71">
+        <f t="shared" si="0"/>
+        <v>7.943925233644844E-2</v>
+      </c>
+      <c r="E71">
         <v>2289.17</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>2359.52</v>
       </c>
-      <c r="F71">
-        <v>75.901370432652698</v>
-      </c>
       <c r="G71">
-        <v>-55.585696811868701</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.901652357348453</v>
+      </c>
+      <c r="H71" s="1">
+        <f>[1]Hoja3!C1714</f>
+        <v>-90.38379446640829</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2008</v>
       </c>
@@ -2009,19 +3624,24 @@
         <v>69.489999999999995</v>
       </c>
       <c r="D72">
+        <f t="shared" si="0"/>
+        <v>7.7197333746705787E-2</v>
+      </c>
+      <c r="E72">
         <v>2329.16</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>2318</v>
       </c>
-      <c r="F72">
-        <v>74.192738108653856</v>
-      </c>
       <c r="G72">
-        <v>-62.571242469336234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74.169725665143389</v>
+      </c>
+      <c r="H72" s="1">
+        <f>[1]Hoja3!C1715</f>
+        <v>636.5675889328113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2008</v>
       </c>
@@ -2032,19 +3652,24 @@
         <v>69.8</v>
       </c>
       <c r="D73">
+        <f t="shared" si="0"/>
+        <v>7.682813946312872E-2</v>
+      </c>
+      <c r="E73">
         <v>2252.7199999999998</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>2243.59</v>
       </c>
-      <c r="F73">
-        <v>75.001859561897817</v>
-      </c>
       <c r="G73">
-        <v>-69.556788126803767</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.003165729012423</v>
+      </c>
+      <c r="H73" s="1">
+        <f>[1]Hoja3!C1716</f>
+        <v>48.653315766355945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2009</v>
       </c>
@@ -2055,19 +3680,24 @@
         <v>70.209999999999994</v>
       </c>
       <c r="D74">
+        <f t="shared" si="0"/>
+        <v>7.1744771790566153E-2</v>
+      </c>
+      <c r="E74">
         <v>2252.98</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>2420.2600000000002</v>
       </c>
-      <c r="F74">
-        <v>74.344481116353123</v>
-      </c>
       <c r="G74">
-        <v>-76.542333784271293</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74.356038883274877</v>
+      </c>
+      <c r="H74" s="1">
+        <f>[1]Hoja3!C1717</f>
+        <v>497.14268774703214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2009</v>
       </c>
@@ -2078,19 +3708,24 @@
         <v>70.8</v>
       </c>
       <c r="D75">
+        <f t="shared" si="0"/>
+        <v>6.4661654135338198E-2</v>
+      </c>
+      <c r="E75">
         <v>2513.7399999999998</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>2555.89</v>
       </c>
-      <c r="F75">
-        <v>75.73119790306464</v>
-      </c>
       <c r="G75">
-        <v>-83.527879441738818</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.724450056317352</v>
+      </c>
+      <c r="H75" s="1">
+        <f>[1]Hoja3!C1718</f>
+        <v>52.413043478257578</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2009</v>
       </c>
@@ -2101,19 +3736,24 @@
         <v>71.150000000000006</v>
       </c>
       <c r="D76">
+        <f t="shared" si="0"/>
+        <v>6.1306682577565663E-2</v>
+      </c>
+      <c r="E76">
         <v>2477.21</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>2561.21</v>
       </c>
-      <c r="F76">
-        <v>75.373761208847995</v>
-      </c>
       <c r="G76">
-        <v>-90.513425099206344</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.364222186617681</v>
+      </c>
+      <c r="H76" s="1">
+        <f>[1]Hoja3!C1719</f>
+        <v>366.20415019762527</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2009</v>
       </c>
@@ -2124,19 +3764,24 @@
         <v>71.38</v>
       </c>
       <c r="D77">
+        <f t="shared" si="0"/>
+        <v>5.7324840764330975E-2</v>
+      </c>
+      <c r="E77">
         <v>2379.36</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>2289.73</v>
       </c>
-      <c r="F77">
-        <v>75.978029178505196</v>
-      </c>
       <c r="G77">
-        <v>-97.49897075667387</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.983895728242217</v>
+      </c>
+      <c r="H77" s="1">
+        <f>[1]Hoja3!C1720</f>
+        <v>-327.2637492941883</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2009</v>
       </c>
@@ -2147,19 +3792,24 @@
         <v>71.39</v>
       </c>
       <c r="D78">
+        <f t="shared" si="0"/>
+        <v>4.7695920164367411E-2</v>
+      </c>
+      <c r="E78">
         <v>2229.9499999999998</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>2140.66</v>
       </c>
-      <c r="F78">
-        <v>75.965560021551525</v>
-      </c>
       <c r="G78">
-        <v>-104.4845164141414</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.982412145476246</v>
+      </c>
+      <c r="H78" s="1">
+        <f>[1]Hoja3!C1721</f>
+        <v>-806.66324110671871</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2009</v>
       </c>
@@ -2170,19 +3820,24 @@
         <v>71.349999999999994</v>
       </c>
       <c r="D79">
+        <f t="shared" ref="D79:D142" si="1">C79/C67-1</f>
+        <v>3.8120180416120863E-2</v>
+      </c>
+      <c r="E79">
         <v>2090.04</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>2158.67</v>
       </c>
-      <c r="F79">
-        <v>75.799226442765445</v>
-      </c>
       <c r="G79">
-        <v>-111.47006207160892</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.796844657569622</v>
+      </c>
+      <c r="H79" s="1">
+        <f>[1]Hoja3!C1722</f>
+        <v>11.251232825150964</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2009</v>
       </c>
@@ -2193,19 +3848,24 @@
         <v>71.319999999999993</v>
       </c>
       <c r="D80">
+        <f t="shared" si="1"/>
+        <v>3.2725166521864857E-2</v>
+      </c>
+      <c r="E80">
         <v>2052.6799999999998</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>2043.37</v>
       </c>
-      <c r="F80">
-        <v>77.672762955960209</v>
-      </c>
       <c r="G80">
-        <v>-118.45560772907645</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77.675962043878485</v>
+      </c>
+      <c r="H80" s="1">
+        <f>[1]Hoja3!C1723</f>
+        <v>135.49168078298976</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2009</v>
       </c>
@@ -2216,19 +3876,24 @@
         <v>71.349999999999994</v>
       </c>
       <c r="D81">
+        <f t="shared" si="1"/>
+        <v>3.1218384159560575E-2</v>
+      </c>
+      <c r="E81">
         <v>2018.97</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>2035</v>
       </c>
-      <c r="F81">
-        <v>75.980963487750884</v>
-      </c>
       <c r="G81">
-        <v>-125.44115338654397</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75.945220952693489</v>
+      </c>
+      <c r="H81" s="1">
+        <f>[1]Hoja3!C1724</f>
+        <v>-458.06866177300503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2009</v>
       </c>
@@ -2239,19 +3904,24 @@
         <v>71.28</v>
       </c>
       <c r="D82">
+        <f t="shared" si="1"/>
+        <v>3.2145960034752452E-2</v>
+      </c>
+      <c r="E82">
         <v>1980.77</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>1922</v>
       </c>
-      <c r="F82">
-        <v>76.946258781435787</v>
-      </c>
       <c r="G82">
-        <v>-132.42669904401151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76.959501732111377</v>
+      </c>
+      <c r="H82" s="1">
+        <f>[1]Hoja3!C1725</f>
+        <v>-507.51106719368022</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2009</v>
       </c>
@@ -2262,19 +3932,24 @@
         <v>71.19</v>
       </c>
       <c r="D83">
+        <f t="shared" si="1"/>
+        <v>2.7272727272727337E-2</v>
+      </c>
+      <c r="E83">
         <v>1904.86</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>1993.8</v>
       </c>
-      <c r="F83">
-        <v>77.191607194476987</v>
-      </c>
       <c r="G83">
-        <v>-139.41224470147904</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77.206735530865359</v>
+      </c>
+      <c r="H83" s="1">
+        <f>[1]Hoja3!C1726</f>
+        <v>-382.24031620552933</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2009</v>
       </c>
@@ -2285,19 +3960,24 @@
         <v>71.14</v>
       </c>
       <c r="D84">
+        <f t="shared" si="1"/>
+        <v>2.3744423658080382E-2</v>
+      </c>
+      <c r="E84">
         <v>1973.57</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>1997.47</v>
       </c>
-      <c r="F84">
-        <v>77.189346611319749</v>
-      </c>
       <c r="G84">
-        <v>-146.39779035894657</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77.168798793054705</v>
+      </c>
+      <c r="H84" s="1">
+        <f>[1]Hoja3!C1727</f>
+        <v>-620.96699604743208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2009</v>
       </c>
@@ -2308,19 +3988,24 @@
         <v>71.2</v>
       </c>
       <c r="D85">
+        <f t="shared" si="1"/>
+        <v>2.0057306590258062E-2</v>
+      </c>
+      <c r="E85">
         <v>2017.05</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>2044.23</v>
       </c>
-      <c r="F85">
-        <v>78.328092496520085</v>
-      </c>
       <c r="G85">
-        <v>-153.38333601641409</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78.337204688450157</v>
+      </c>
+      <c r="H85" s="1">
+        <f>[1]Hoja3!C1728</f>
+        <v>-463.68098375054296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2010</v>
       </c>
@@ -2331,19 +4016,24 @@
         <v>71.69</v>
       </c>
       <c r="D86">
+        <f t="shared" si="1"/>
+        <v>2.1079618287993318E-2</v>
+      </c>
+      <c r="E86">
         <v>1978.19</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>1982.29</v>
       </c>
-      <c r="F86">
-        <v>77.296809209174697</v>
-      </c>
       <c r="G86">
-        <v>-160.36888167388167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77.314015814238076</v>
+      </c>
+      <c r="H86" s="1">
+        <f>[1]Hoja3!C1729</f>
+        <v>-681.09644268774582</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2010</v>
       </c>
@@ -2354,19 +4044,24 @@
         <v>72.28</v>
       </c>
       <c r="D87">
+        <f t="shared" si="1"/>
+        <v>2.0903954802260039E-2</v>
+      </c>
+      <c r="E87">
         <v>1952.89</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>1932.32</v>
       </c>
-      <c r="F87">
-        <v>78.389225610421278</v>
-      </c>
       <c r="G87">
-        <v>6.3975036075035945</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78.385190857219641</v>
+      </c>
+      <c r="H87" s="1">
+        <f>[1]Hoja3!C1730</f>
+        <v>-291.3233201581013</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2010</v>
       </c>
@@ -2377,19 +4072,24 @@
         <v>72.459999999999994</v>
       </c>
       <c r="D88">
+        <f t="shared" si="1"/>
+        <v>1.8411806043569845E-2</v>
+      </c>
+      <c r="E88">
         <v>1909.1</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>1928.59</v>
       </c>
-      <c r="F88">
-        <v>78.770194218972193</v>
-      </c>
       <c r="G88">
-        <v>173.16388888888886</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78.762296117734792</v>
+      </c>
+      <c r="H88" s="1">
+        <f>[1]Hoja3!C1731</f>
+        <v>-178.65402785620063</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2010</v>
       </c>
@@ -2400,19 +4100,24 @@
         <v>72.790000000000006</v>
       </c>
       <c r="D89">
+        <f t="shared" si="1"/>
+        <v>1.9753432333987186E-2</v>
+      </c>
+      <c r="E89">
         <v>1940.36</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>1969.75</v>
       </c>
-      <c r="F89">
-        <v>79.232507683439749</v>
-      </c>
       <c r="G89">
-        <v>186.24896825396826</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79.249977226296224</v>
+      </c>
+      <c r="H89" s="1">
+        <f>[1]Hoja3!C1732</f>
+        <v>351.88227881958255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2010</v>
       </c>
@@ -2423,19 +4128,24 @@
         <v>72.87</v>
       </c>
       <c r="D90">
+        <f t="shared" si="1"/>
+        <v>2.0731194845216461E-2</v>
+      </c>
+      <c r="E90">
         <v>1984.36</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>1971.55</v>
       </c>
-      <c r="F90">
-        <v>79.051917054341757</v>
-      </c>
       <c r="G90">
-        <v>227.2067207792208</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79.065580307553319</v>
+      </c>
+      <c r="H90" s="1">
+        <f>[1]Hoja3!C1733</f>
+        <v>-253.50889328062885</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2010</v>
       </c>
@@ -2446,19 +4156,24 @@
         <v>72.95</v>
       </c>
       <c r="D91">
+        <f t="shared" si="1"/>
+        <v>2.2424667133847276E-2</v>
+      </c>
+      <c r="E91">
         <v>1925.9</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>1916.46</v>
       </c>
-      <c r="F91">
-        <v>79.306950425879975</v>
-      </c>
       <c r="G91">
-        <v>91.685050505050484</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79.303493197949692</v>
+      </c>
+      <c r="H91" s="1">
+        <f>[1]Hoja3!C1734</f>
+        <v>293.91724073028718</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2010</v>
       </c>
@@ -2469,19 +4184,24 @@
         <v>72.92</v>
       </c>
       <c r="D92">
+        <f t="shared" si="1"/>
+        <v>2.243409983174427E-2</v>
+      </c>
+      <c r="E92">
         <v>1874.52</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>1842.79</v>
       </c>
-      <c r="F92">
-        <v>79.365925928879804</v>
-      </c>
       <c r="G92">
-        <v>84.085462121212174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79.371030758709736</v>
+      </c>
+      <c r="H92" s="1">
+        <f>[1]Hoja3!C1735</f>
+        <v>1030.2341238471658</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2010</v>
       </c>
@@ -2492,19 +4212,24 @@
         <v>73</v>
       </c>
       <c r="D93">
+        <f t="shared" si="1"/>
+        <v>2.3125437981780017E-2</v>
+      </c>
+      <c r="E93">
         <v>1819.06</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>1823.74</v>
       </c>
-      <c r="F93">
-        <v>79.440100154739582</v>
-      </c>
       <c r="G93">
-        <v>150.89401443001438</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79.409024702939277</v>
+      </c>
+      <c r="H93" s="1">
+        <f>[1]Hoja3!C1736</f>
+        <v>466.5617730096028</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2010</v>
       </c>
@@ -2515,19 +4240,24 @@
         <v>72.900000000000006</v>
       </c>
       <c r="D94">
+        <f t="shared" si="1"/>
+        <v>2.2727272727272707E-2</v>
+      </c>
+      <c r="E94">
         <v>1805.6</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>1799.89</v>
       </c>
-      <c r="F94">
-        <v>80.473812034206119</v>
-      </c>
       <c r="G94">
-        <v>140.4424523809524</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80.444632528128921</v>
+      </c>
+      <c r="H94" s="1">
+        <f>[1]Hoja3!C1737</f>
+        <v>332.96403162055572</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2010</v>
       </c>
@@ -2538,19 +4268,24 @@
         <v>72.84</v>
       </c>
       <c r="D95">
+        <f t="shared" si="1"/>
+        <v>2.3177412557943589E-2</v>
+      </c>
+      <c r="E95">
         <v>1808.46</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>1831.64</v>
       </c>
-      <c r="F95">
-        <v>81.031766811133082</v>
-      </c>
       <c r="G95">
-        <v>172.19748809523807</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81.050939002554728</v>
+      </c>
+      <c r="H95" s="1">
+        <f>[1]Hoja3!C1738</f>
+        <v>127.89308300395533</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2010</v>
       </c>
@@ -2561,19 +4296,24 @@
         <v>72.98</v>
       </c>
       <c r="D96">
+        <f t="shared" si="1"/>
+        <v>2.5864492549901641E-2</v>
+      </c>
+      <c r="E96">
         <v>1863.67</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>1916.96</v>
       </c>
-      <c r="F96">
-        <v>81.181207635861</v>
-      </c>
       <c r="G96">
-        <v>185.29753246753248</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81.164113124400401</v>
+      </c>
+      <c r="H96" s="1">
+        <f>[1]Hoja3!C1739</f>
+        <v>1042.498221343878</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2010</v>
       </c>
@@ -2584,19 +4324,24 @@
         <v>73.45</v>
       </c>
       <c r="D97">
+        <f t="shared" si="1"/>
+        <v>3.1601123595505598E-2</v>
+      </c>
+      <c r="E97">
         <v>1925.86</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>1913.98</v>
       </c>
-      <c r="F97">
-        <v>82.679271875508704</v>
-      </c>
       <c r="G97">
-        <v>154.98935497835498</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>82.699395004833619</v>
+      </c>
+      <c r="H97" s="1">
+        <f>[1]Hoja3!C1740</f>
+        <v>724.38516531777509</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2011</v>
       </c>
@@ -2607,19 +4352,24 @@
         <v>74.12</v>
       </c>
       <c r="D98">
+        <f t="shared" si="1"/>
+        <v>3.3895940856465412E-2</v>
+      </c>
+      <c r="E98">
         <v>1866.64</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>1857.98</v>
       </c>
-      <c r="F98">
-        <v>82.967826049652103</v>
-      </c>
       <c r="G98">
-        <v>87.978579365079383</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>82.985964977106732</v>
+      </c>
+      <c r="H98" s="1">
+        <f>[1]Hoja3!C1741</f>
+        <v>92.999999999999204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2011</v>
       </c>
@@ -2630,19 +4380,24 @@
         <v>74.569999999999993</v>
       </c>
       <c r="D99">
+        <f t="shared" si="1"/>
+        <v>3.1682346430547792E-2</v>
+      </c>
+      <c r="E99">
         <v>1882.61</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>1895.56</v>
       </c>
-      <c r="F99">
-        <v>82.976491105319738</v>
-      </c>
       <c r="G99">
-        <v>-109.737215007215</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>82.97390970987243</v>
+      </c>
+      <c r="H99" s="1">
+        <f>[1]Hoja3!C1742</f>
+        <v>448.41501976283917</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2011</v>
       </c>
@@ -2653,19 +4408,24 @@
         <v>74.77</v>
       </c>
       <c r="D100">
+        <f t="shared" si="1"/>
+        <v>3.1879657742202694E-2</v>
+      </c>
+      <c r="E100">
         <v>1884.38</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>1879.47</v>
       </c>
-      <c r="F100">
-        <v>83.724360182352797</v>
-      </c>
       <c r="G100">
-        <v>88.198333333333323</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83.71810838857958</v>
+      </c>
+      <c r="H100" s="1">
+        <f>[1]Hoja3!C1743</f>
+        <v>196.60974025974224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2011</v>
       </c>
@@ -2676,19 +4436,24 @@
         <v>74.86</v>
       </c>
       <c r="D101">
+        <f t="shared" si="1"/>
+        <v>2.8437972248935184E-2</v>
+      </c>
+      <c r="E101">
         <v>1812.77</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>1768.19</v>
       </c>
-      <c r="F101">
-        <v>83.828910471705129</v>
-      </c>
       <c r="G101">
-        <v>182.21191697191699</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83.855917655927072</v>
+      </c>
+      <c r="H101" s="1">
+        <f>[1]Hoja3!C1744</f>
+        <v>542.99253816358896</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2011</v>
       </c>
@@ -2699,19 +4464,24 @@
         <v>75.069999999999993</v>
       </c>
       <c r="D102">
+        <f t="shared" si="1"/>
+        <v>3.019075065184551E-2</v>
+      </c>
+      <c r="E102">
         <v>1801.65</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>1817.34</v>
       </c>
-      <c r="F102">
-        <v>84.156260910178105</v>
-      </c>
       <c r="G102">
-        <v>39.096720779220774</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84.165973996586601</v>
+      </c>
+      <c r="H102" s="1">
+        <f>[1]Hoja3!C1745</f>
+        <v>67.100454545457069</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2011</v>
       </c>
@@ -2722,19 +4492,24 @@
         <v>75.31</v>
       </c>
       <c r="D103">
+        <f t="shared" si="1"/>
+        <v>3.2350925291295463E-2</v>
+      </c>
+      <c r="E103">
         <v>1782.54</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>1780.16</v>
       </c>
-      <c r="F103">
-        <v>84.444773432961838</v>
-      </c>
       <c r="G103">
-        <v>41.971479076479085</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84.438944305618762</v>
+      </c>
+      <c r="H103" s="1">
+        <f>[1]Hoja3!C1746</f>
+        <v>139.18847818847553</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2011</v>
       </c>
@@ -2745,19 +4520,24 @@
         <v>75.42</v>
       </c>
       <c r="D104">
+        <f t="shared" si="1"/>
+        <v>3.4284147010422483E-2</v>
+      </c>
+      <c r="E104">
         <v>1761.75</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>1777.82</v>
       </c>
-      <c r="F104">
-        <v>84.842495612560143</v>
-      </c>
       <c r="G104">
-        <v>111.89091666666664</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84.849409795572072</v>
+      </c>
+      <c r="H104" s="1">
+        <f>[1]Hoja3!C1747</f>
+        <v>899.91592617908395</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2011</v>
       </c>
@@ -2768,19 +4548,24 @@
         <v>75.39</v>
       </c>
       <c r="D105">
+        <f t="shared" si="1"/>
+        <v>3.2739726027397165E-2</v>
+      </c>
+      <c r="E105">
         <v>1785.04</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>1783.66</v>
       </c>
-      <c r="F105">
-        <v>86.557332837100461</v>
-      </c>
       <c r="G105">
-        <v>151.53956998556998</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86.533981826715703</v>
+      </c>
+      <c r="H105" s="1">
+        <f>[1]Hoja3!C1748</f>
+        <v>-436.86517316017921</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2011</v>
       </c>
@@ -2791,19 +4576,24 @@
         <v>75.62</v>
       </c>
       <c r="D106">
+        <f t="shared" si="1"/>
+        <v>3.7311385459533497E-2</v>
+      </c>
+      <c r="E106">
         <v>1836.15</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>1915.1</v>
       </c>
-      <c r="F106">
-        <v>86.08399537035487</v>
-      </c>
       <c r="G106">
-        <v>13.259952380952384</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86.029267194288863</v>
+      </c>
+      <c r="H106" s="1">
+        <f>[1]Hoja3!C1749</f>
+        <v>-388.81060606060805</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2011</v>
       </c>
@@ -2814,19 +4604,24 @@
         <v>75.77</v>
       </c>
       <c r="D107">
+        <f t="shared" si="1"/>
+        <v>4.0225151015925276E-2</v>
+      </c>
+      <c r="E107">
         <v>1910.38</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>1863.06</v>
       </c>
-      <c r="F107">
-        <v>86.313943478932728</v>
-      </c>
       <c r="G107">
-        <v>190.23373809523812</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86.3345628614059</v>
+      </c>
+      <c r="H107" s="1">
+        <f>[1]Hoja3!C1750</f>
+        <v>599.73138528138315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2011</v>
       </c>
@@ -2837,19 +4632,24 @@
         <v>75.87</v>
       </c>
       <c r="D108">
+        <f t="shared" si="1"/>
+        <v>3.9599890380926261E-2</v>
+      </c>
+      <c r="E108">
         <v>1918.21</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>1967.18</v>
       </c>
-      <c r="F108">
-        <v>86.780071881725945</v>
-      </c>
       <c r="G108">
-        <v>177.63207792207785</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86.76534236285697</v>
+      </c>
+      <c r="H108" s="1">
+        <f>[1]Hoja3!C1751</f>
+        <v>340.8590909090949</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2011</v>
       </c>
@@ -2860,19 +4660,24 @@
         <v>76.19</v>
       </c>
       <c r="D109">
+        <f t="shared" si="1"/>
+        <v>3.7304288631722082E-2</v>
+      </c>
+      <c r="E109">
         <v>1934.08</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>1942.7</v>
       </c>
-      <c r="F109">
-        <v>86.815067570999204</v>
-      </c>
       <c r="G109">
-        <v>90.12499134199129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86.840145829312561</v>
+      </c>
+      <c r="H109" s="1">
+        <f>[1]Hoja3!C1752</f>
+        <v>461.48358863359317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2012</v>
       </c>
@@ -2883,19 +4688,24 @@
         <v>76.75</v>
       </c>
       <c r="D110">
+        <f t="shared" si="1"/>
+        <v>3.5483000539665355E-2</v>
+      </c>
+      <c r="E110">
         <v>1852.12</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>1815.08</v>
       </c>
-      <c r="F110">
-        <v>87.544316828256513</v>
-      </c>
       <c r="G110">
-        <v>109.16607936507936</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87.561230623005258</v>
+      </c>
+      <c r="H110" s="1">
+        <f>[1]Hoja3!C1753</f>
+        <v>1558.0575757575707</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2012</v>
       </c>
@@ -2906,19 +4716,24 @@
         <v>77.22</v>
       </c>
       <c r="D111">
+        <f t="shared" si="1"/>
+        <v>3.5537079254391868E-2</v>
+      </c>
+      <c r="E111">
         <v>1783.56</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>1767.83</v>
       </c>
-      <c r="F111">
-        <v>87.685794657901482</v>
-      </c>
       <c r="G111">
-        <v>57.206031746031755</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87.720740882831777</v>
+      </c>
+      <c r="H111" s="1">
+        <f>[1]Hoja3!C1754</f>
+        <v>-184.00316205533386</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2012</v>
       </c>
@@ -2929,19 +4744,24 @@
         <v>77.31</v>
       </c>
       <c r="D112">
+        <f t="shared" si="1"/>
+        <v>3.3970843921358851E-2</v>
+      </c>
+      <c r="E112">
         <v>1766.34</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>1792.07</v>
       </c>
-      <c r="F112">
-        <v>88.404418549978743</v>
-      </c>
       <c r="G112">
-        <v>206.03375000000005</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88.392987392736373</v>
+      </c>
+      <c r="H112" s="1">
+        <f>[1]Hoja3!C1755</f>
+        <v>94.541142191140125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2012</v>
       </c>
@@ -2952,19 +4772,24 @@
         <v>77.42</v>
       </c>
       <c r="D113">
+        <f t="shared" si="1"/>
+        <v>3.419716804702122E-2</v>
+      </c>
+      <c r="E113">
         <v>1775.06</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>1761.2</v>
       </c>
-      <c r="F113">
-        <v>87.725401564276055</v>
-      </c>
       <c r="G113">
-        <v>131.8166178266178</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87.748572375717586</v>
+      </c>
+      <c r="H113" s="1">
+        <f>[1]Hoja3!C1756</f>
+        <v>339.27686217291512</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2012</v>
       </c>
@@ -2975,19 +4800,24 @@
         <v>77.66</v>
       </c>
       <c r="D114">
+        <f t="shared" si="1"/>
+        <v>3.4501132276541835E-2</v>
+      </c>
+      <c r="E114">
         <v>1793.28</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>1827.83</v>
       </c>
-      <c r="F114">
-        <v>88.463442184025297</v>
-      </c>
       <c r="G114">
-        <v>259.95369047619045</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88.465928512625226</v>
+      </c>
+      <c r="H114" s="1">
+        <f>[1]Hoja3!C1757</f>
+        <v>-219.11632867133358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2012</v>
       </c>
@@ -2998,19 +4828,24 @@
         <v>77.72</v>
       </c>
       <c r="D115">
+        <f t="shared" si="1"/>
+        <v>3.200106227592614E-2</v>
+      </c>
+      <c r="E115">
         <v>1792.63</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>1784.6</v>
       </c>
-      <c r="F115">
-        <v>88.557592777641887</v>
-      </c>
       <c r="G115">
-        <v>147.3717965367965</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88.52968279428498</v>
+      </c>
+      <c r="H115" s="1">
+        <f>[1]Hoja3!C1758</f>
+        <v>-836.49893439893003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2012</v>
       </c>
@@ -3021,19 +4856,24 @@
         <v>77.7</v>
       </c>
       <c r="D116">
+        <f t="shared" si="1"/>
+        <v>3.0230708035003939E-2</v>
+      </c>
+      <c r="E116">
         <v>1784.43</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>1789.02</v>
       </c>
-      <c r="F116">
-        <v>87.975442969849226</v>
-      </c>
       <c r="G116">
-        <v>130.70091666666664</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87.980889303304437</v>
+      </c>
+      <c r="H116" s="1">
+        <f>[1]Hoja3!C1759</f>
+        <v>-449.18120300751502</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2012</v>
       </c>
@@ -3044,19 +4884,24 @@
         <v>77.73</v>
       </c>
       <c r="D117">
+        <f t="shared" si="1"/>
+        <v>3.1038599283724766E-2</v>
+      </c>
+      <c r="E117">
         <v>1806.34</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>1830.5</v>
       </c>
-      <c r="F117">
-        <v>86.83366668062304</v>
-      </c>
       <c r="G117">
-        <v>141.90590331890334</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86.818685510886013</v>
+      </c>
+      <c r="H117" s="1">
+        <f>[1]Hoja3!C1760</f>
+        <v>-225.38525597591251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2012</v>
       </c>
@@ -3067,19 +4912,24 @@
         <v>77.959999999999994</v>
       </c>
       <c r="D118">
+        <f t="shared" si="1"/>
+        <v>3.0944194657497981E-2</v>
+      </c>
+      <c r="E118">
         <v>1803.18</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>1800.52</v>
       </c>
-      <c r="F118">
-        <v>88.526963214193771</v>
-      </c>
       <c r="G118">
-        <v>295.8766190476191</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88.465834268359245</v>
+      </c>
+      <c r="H118" s="1">
+        <f>[1]Hoja3!C1761</f>
+        <v>-600.86363636363785</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2012</v>
       </c>
@@ -3090,19 +4940,24 @@
         <v>78.08</v>
       </c>
       <c r="D119">
+        <f t="shared" si="1"/>
+        <v>3.0487000131978359E-2</v>
+      </c>
+      <c r="E119">
         <v>1804.97</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>1829.89</v>
       </c>
-      <c r="F119">
-        <v>88.577121714294051</v>
-      </c>
       <c r="G119">
-        <v>102.16148809523804</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88.591484811488954</v>
+      </c>
+      <c r="H119" s="1">
+        <f>[1]Hoja3!C1762</f>
+        <v>-228.19480519480385</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2012</v>
       </c>
@@ -3113,19 +4968,24 @@
         <v>77.98</v>
       </c>
       <c r="D120">
+        <f t="shared" si="1"/>
+        <v>2.781072887834446E-2</v>
+      </c>
+      <c r="E120">
         <v>1820.29</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>1817.93</v>
       </c>
-      <c r="F120">
-        <v>89.34440730106482</v>
-      </c>
       <c r="G120">
-        <v>147.22207792207786</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>89.332368437408235</v>
+      </c>
+      <c r="H120" s="1">
+        <f>[1]Hoja3!C1763</f>
+        <v>-496.23545454545888</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2012</v>
       </c>
@@ -3136,19 +4996,24 @@
         <v>78.05</v>
       </c>
       <c r="D121">
+        <f t="shared" si="1"/>
+        <v>2.4412652579078653E-2</v>
+      </c>
+      <c r="E121">
         <v>1793.94</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>1768.23</v>
       </c>
-      <c r="F121">
-        <v>89.150852577601697</v>
-      </c>
       <c r="G121">
-        <v>114.27180952380951</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>89.181016107059179</v>
+      </c>
+      <c r="H121" s="1">
+        <f>[1]Hoja3!C1764</f>
+        <v>-334.15347430347038</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2013</v>
       </c>
@@ -3159,19 +5024,24 @@
         <v>78.28</v>
       </c>
       <c r="D122">
+        <f t="shared" si="1"/>
+        <v>1.993485342019552E-2</v>
+      </c>
+      <c r="E122">
         <v>1770.01</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>1773.24</v>
       </c>
-      <c r="F122">
-        <v>91.360606374020136</v>
-      </c>
       <c r="G122">
-        <v>-206.55892063492064</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91.377086721324076</v>
+      </c>
+      <c r="H122" s="1">
+        <f>[1]Hoja3!C1765</f>
+        <v>-605.83939393939204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2013</v>
       </c>
@@ -3182,19 +5052,24 @@
         <v>78.63</v>
       </c>
       <c r="D123">
+        <f t="shared" si="1"/>
+        <v>1.8259518259518215E-2</v>
+      </c>
+      <c r="E123">
         <v>1791.48</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>1816.42</v>
       </c>
-      <c r="F123">
-        <v>90.688233373416367</v>
-      </c>
       <c r="G123">
-        <v>99.694126984126967</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>90.686722590730255</v>
+      </c>
+      <c r="H123" s="1">
+        <f>[1]Hoja3!C1766</f>
+        <v>288.35753724536153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2013</v>
       </c>
@@ -3205,19 +5080,24 @@
         <v>78.790000000000006</v>
       </c>
       <c r="D124">
+        <f t="shared" si="1"/>
+        <v>1.9143707153020273E-2</v>
+      </c>
+      <c r="E124">
         <v>1809.89</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>1832.2</v>
       </c>
-      <c r="F124">
-        <v>90.334974670375317</v>
-      </c>
       <c r="G124">
-        <v>143.81666666666669</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+        <v>90.395868102007384</v>
+      </c>
+      <c r="H124" s="1">
+        <f>[1]Hoja3!C1767</f>
+        <v>-185.87144522144672</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2013</v>
       </c>
@@ -3228,19 +5108,24 @@
         <v>78.989999999999995</v>
       </c>
       <c r="D125">
+        <f t="shared" si="1"/>
+        <v>2.0278997675019284E-2</v>
+      </c>
+      <c r="E125">
         <v>1829.96</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>1828.79</v>
       </c>
-      <c r="F125">
-        <v>92.428896865230712</v>
-      </c>
       <c r="G125">
-        <v>23.742951159951161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92.374857536718054</v>
+      </c>
+      <c r="H125" s="1">
+        <f>[1]Hoja3!C1768</f>
+        <v>-780.38397698792824</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2013</v>
       </c>
@@ -3251,19 +5136,24 @@
         <v>79.209999999999994</v>
       </c>
       <c r="D126">
+        <f t="shared" si="1"/>
+        <v>1.9958794746330222E-2</v>
+      </c>
+      <c r="E126">
         <v>1850.12</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>1891.48</v>
       </c>
-      <c r="F126">
-        <v>93.047960420721893</v>
-      </c>
       <c r="G126">
-        <v>168.42724358974357</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93.056665637387056</v>
+      </c>
+      <c r="H126" s="1">
+        <f>[1]Hoja3!C1769</f>
+        <v>-48.68276223776229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2013</v>
       </c>
@@ -3274,19 +5164,24 @@
         <v>79.39</v>
       </c>
       <c r="D127">
+        <f t="shared" si="1"/>
+        <v>2.1487390633041725E-2</v>
+      </c>
+      <c r="E127">
         <v>1909.5</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>1929</v>
       </c>
-      <c r="F127">
-        <v>92.465245541106981</v>
-      </c>
       <c r="G127">
-        <v>119.4416349206349</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92.422058597196511</v>
+      </c>
+      <c r="H127" s="1">
+        <f>[1]Hoja3!C1770</f>
+        <v>-590.20853146853551</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2013</v>
       </c>
@@ -3297,19 +5192,24 @@
         <v>79.430000000000007</v>
       </c>
       <c r="D128">
+        <f t="shared" si="1"/>
+        <v>2.2265122265122228E-2</v>
+      </c>
+      <c r="E128">
         <v>1900.59</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>1890.33</v>
       </c>
-      <c r="F128">
-        <v>93.943035067174037</v>
-      </c>
       <c r="G128">
-        <v>227.57641666666663</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93.958761978577058</v>
+      </c>
+      <c r="H128" s="1">
+        <f>[1]Hoja3!C1771</f>
+        <v>-754.22204216836008</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2013</v>
       </c>
@@ -3320,19 +5220,24 @@
         <v>79.5</v>
       </c>
       <c r="D129">
+        <f t="shared" si="1"/>
+        <v>2.2771130837514475E-2</v>
+      </c>
+      <c r="E129">
         <v>1903.66</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>1935.43</v>
       </c>
-      <c r="F129">
-        <v>92.490478338486952</v>
-      </c>
       <c r="G129">
-        <v>56.418320901320897</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92.487052939285192</v>
+      </c>
+      <c r="H129" s="1">
+        <f>[1]Hoja3!C1772</f>
+        <v>237.79701827158715</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2013</v>
       </c>
@@ -3343,19 +5248,24 @@
         <v>79.73</v>
       </c>
       <c r="D130">
+        <f t="shared" si="1"/>
+        <v>2.2703950743971468E-2</v>
+      </c>
+      <c r="E130">
         <v>1919.4</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>1914.65</v>
       </c>
-      <c r="F130">
-        <v>93.754314429223683</v>
-      </c>
       <c r="G130">
-        <v>124.85036904761898</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93.718723443872037</v>
+      </c>
+      <c r="H130" s="1">
+        <f>[1]Hoja3!C1773</f>
+        <v>-11.885780885776967</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2013</v>
       </c>
@@ -3366,19 +5276,24 @@
         <v>79.52</v>
       </c>
       <c r="D131">
+        <f t="shared" si="1"/>
+        <v>1.8442622950819665E-2</v>
+      </c>
+      <c r="E131">
         <v>1885.91</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>1884.06</v>
       </c>
-      <c r="F131">
-        <v>94.245755776460626</v>
-      </c>
       <c r="G131">
-        <v>81.905773809523794</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94.25948884526575</v>
+      </c>
+      <c r="H131" s="1">
+        <f>[1]Hoja3!C1774</f>
+        <v>-647.59136696636619</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2013</v>
       </c>
@@ -3389,19 +5304,24 @@
         <v>79.349999999999994</v>
       </c>
       <c r="D132">
+        <f t="shared" si="1"/>
+        <v>1.7568607335213926E-2</v>
+      </c>
+      <c r="E132">
         <v>1922.14</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>1931.88</v>
       </c>
-      <c r="F132">
-        <v>94.79466948018495</v>
-      </c>
       <c r="G132">
-        <v>75.280649350649327</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94.787874105157911</v>
+      </c>
+      <c r="H132" s="1">
+        <f>[1]Hoja3!C1775</f>
+        <v>-573.05713286712989</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2013</v>
       </c>
@@ -3412,19 +5332,24 @@
         <v>79.56</v>
       </c>
       <c r="D133">
+        <f t="shared" si="1"/>
+        <v>1.9346572709801446E-2</v>
+      </c>
+      <c r="E133">
         <v>1934.08</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>1926.83</v>
       </c>
-      <c r="F133">
-        <v>95.494772710071601</v>
-      </c>
       <c r="G133">
-        <v>-43.375333333333316</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95.523782548952937</v>
+      </c>
+      <c r="H133" s="1">
+        <f>[1]Hoja3!C1776</f>
+        <v>-363.02018759018733</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2014</v>
       </c>
@@ -3435,19 +5360,24 @@
         <v>79.95</v>
       </c>
       <c r="D134">
+        <f t="shared" si="1"/>
+        <v>2.1333673990802327E-2</v>
+      </c>
+      <c r="E134">
         <v>1960.41</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>2008.26</v>
       </c>
-      <c r="F134">
-        <v>95.754600512287553</v>
-      </c>
       <c r="G134">
-        <v>74.378222222222206</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95.770755502241727</v>
+      </c>
+      <c r="H134" s="1">
+        <f>[1]Hoja3!C1777</f>
+        <v>-319.32121212121024</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2014</v>
       </c>
@@ -3458,19 +5388,24 @@
         <v>80.45</v>
       </c>
       <c r="D135">
+        <f t="shared" si="1"/>
+        <v>2.3146381788121673E-2</v>
+      </c>
+      <c r="E135">
         <v>2040.51</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>2054.9</v>
       </c>
-      <c r="F135">
-        <v>97.102840367998155</v>
-      </c>
       <c r="G135">
-        <v>99.54190476190476</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+        <v>97.101014065316377</v>
+      </c>
+      <c r="H135" s="1">
+        <f>[1]Hoja3!C1778</f>
+        <v>9.0106063984349021</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2014</v>
       </c>
@@ -3481,19 +5416,24 @@
         <v>80.77</v>
       </c>
       <c r="D136">
+        <f t="shared" si="1"/>
+        <v>2.5130092651351577E-2</v>
+      </c>
+      <c r="E136">
         <v>2022.19</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>1965.32</v>
       </c>
-      <c r="F136">
-        <v>96.028063781253664</v>
-      </c>
       <c r="G136">
-        <v>131.755</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96.04452827099675</v>
+      </c>
+      <c r="H136" s="1">
+        <f>[1]Hoja3!C1779</f>
+        <v>-290.97284382284261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2014</v>
       </c>
@@ -3504,19 +5444,24 @@
         <v>81.14</v>
       </c>
       <c r="D137">
+        <f t="shared" si="1"/>
+        <v>2.721863527028745E-2</v>
+      </c>
+      <c r="E137">
         <v>1939.27</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>1935.14</v>
       </c>
-      <c r="F137">
-        <v>96.382950475647405</v>
-      </c>
       <c r="G137">
-        <v>178.95509401709401</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96.375803753531954</v>
+      </c>
+      <c r="H137" s="1">
+        <f>[1]Hoja3!C1780</f>
+        <v>-754.74062034456301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2014</v>
       </c>
@@ -3527,19 +5472,24 @@
         <v>81.53</v>
       </c>
       <c r="D138">
+        <f t="shared" si="1"/>
+        <v>2.9289231157682227E-2</v>
+      </c>
+      <c r="E138">
         <v>1915.46</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>1900.64</v>
       </c>
-      <c r="F138">
-        <v>96.191172226430851</v>
-      </c>
       <c r="G138">
-        <v>31.246858974358958</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96.201490634386829</v>
+      </c>
+      <c r="H138" s="1">
+        <f>[1]Hoja3!C1781</f>
+        <v>-604.14430069930472</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2014</v>
       </c>
@@ -3550,19 +5500,24 @@
         <v>81.61</v>
       </c>
       <c r="D139">
+        <f t="shared" si="1"/>
+        <v>2.7963219549061558E-2</v>
+      </c>
+      <c r="E139">
         <v>1888.1</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>1881.19</v>
       </c>
-      <c r="F139">
-        <v>95.860432681052089</v>
-      </c>
       <c r="G139">
-        <v>150.3094126984127</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95.789687467674625</v>
+      </c>
+      <c r="H139" s="1">
+        <f>[1]Hoja3!C1782</f>
+        <v>-324.12671328671718</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2014</v>
       </c>
@@ -3573,19 +5528,24 @@
         <v>81.73</v>
       </c>
       <c r="D140">
+        <f t="shared" si="1"/>
+        <v>2.8956313735364336E-2</v>
+      </c>
+      <c r="E140">
         <v>1858.4</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>1872.43</v>
       </c>
-      <c r="F140">
-        <v>96.997032342303285</v>
-      </c>
       <c r="G140">
-        <v>114.02175</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+        <v>97.016930246366741</v>
+      </c>
+      <c r="H140" s="1">
+        <f>[1]Hoja3!C1783</f>
+        <v>-661.87938482569893</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2014</v>
       </c>
@@ -3596,19 +5556,24 @@
         <v>81.900000000000006</v>
       </c>
       <c r="D141">
+        <f t="shared" si="1"/>
+        <v>3.0188679245283012E-2</v>
+      </c>
+      <c r="E141">
         <v>1899.07</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>1918.62</v>
       </c>
-      <c r="F141">
-        <v>96.521503157789084</v>
-      </c>
-      <c r="G141" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G141">
+        <v>96.52787491403727</v>
+      </c>
+      <c r="H141" s="1">
+        <f>[1]Hoja3!C1784</f>
+        <v>-245.27640830183918</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2014</v>
       </c>
@@ -3619,19 +5584,24 @@
         <v>82.01</v>
       </c>
       <c r="D142">
+        <f t="shared" si="1"/>
+        <v>2.8596513232158616E-2</v>
+      </c>
+      <c r="E142">
         <v>1971.34</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>2028.48</v>
       </c>
-      <c r="F142">
-        <v>98.190051425352038</v>
-      </c>
       <c r="G142">
-        <v>9.262726495726497</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98.176373953931488</v>
+      </c>
+      <c r="H142" s="1">
+        <f>[1]Hoja3!C1785</f>
+        <v>216.37645687645431</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2014</v>
       </c>
@@ -3642,19 +5612,24 @@
         <v>82.14</v>
       </c>
       <c r="D143">
+        <f t="shared" ref="D143:D206" si="2">C143/C131-1</f>
+        <v>3.2947686116700181E-2</v>
+      </c>
+      <c r="E143">
         <v>2047.03</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>2050.52</v>
       </c>
-      <c r="F143">
-        <v>98.636515966477262</v>
-      </c>
       <c r="G143">
-        <v>5.704083333333358</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98.641261489783929</v>
+      </c>
+      <c r="H143" s="1">
+        <f>[1]Hoja3!C1786</f>
+        <v>-97.157800532802867</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2014</v>
       </c>
@@ -3665,19 +5640,24 @@
         <v>82.25</v>
       </c>
       <c r="D144">
+        <f t="shared" si="2"/>
+        <v>3.6546943919344654E-2</v>
+      </c>
+      <c r="E144">
         <v>2127.25</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>2206.19</v>
       </c>
-      <c r="F144">
-        <v>97.594193781537783</v>
-      </c>
       <c r="G144">
-        <v>-3.4743107769656945E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <v>97.58856575809088</v>
+      </c>
+      <c r="H144" s="1">
+        <f>[1]Hoja3!C1787</f>
+        <v>-373.96010489510172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2014</v>
       </c>
@@ -3688,19 +5668,24 @@
         <v>82.47</v>
       </c>
       <c r="D145">
+        <f t="shared" si="2"/>
+        <v>3.6576168929109976E-2</v>
+      </c>
+      <c r="E145">
         <v>2344.23</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>2392.46</v>
       </c>
-      <c r="F145">
-        <v>98.911951473174383</v>
-      </c>
       <c r="G145">
-        <v>-61.2831006493507</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98.937022134946332</v>
+      </c>
+      <c r="H145" s="1">
+        <f>[1]Hoja3!C1788</f>
+        <v>170.49519702520092</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2015</v>
       </c>
@@ -3711,19 +5696,24 @@
         <v>83</v>
       </c>
       <c r="D146">
+        <f t="shared" si="2"/>
+        <v>3.8148843026891699E-2</v>
+      </c>
+      <c r="E146">
         <v>2397.69</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>2441.1</v>
       </c>
-      <c r="F146">
-        <v>98.821162583433519</v>
-      </c>
       <c r="G146">
-        <v>-108.03533333333336</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98.824798172712818</v>
+      </c>
+      <c r="H146" s="1">
+        <f>[1]Hoja3!C1789</f>
+        <v>-91.034498834503893</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2015</v>
       </c>
@@ -3734,19 +5724,24 @@
         <v>83.96</v>
       </c>
       <c r="D147">
+        <f t="shared" si="2"/>
+        <v>4.3629583592293297E-2</v>
+      </c>
+      <c r="E147">
         <v>2420.38</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>2496.9899999999998</v>
       </c>
-      <c r="F147">
-        <v>99.319657113640233</v>
-      </c>
       <c r="G147">
-        <v>-122.08982125603863</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99.315896323816816</v>
+      </c>
+      <c r="H147" s="1">
+        <f>[1]Hoja3!C1790</f>
+        <v>-145.81195027194849</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2015</v>
       </c>
@@ -3757,19 +5752,24 @@
         <v>84.45</v>
       </c>
       <c r="D148">
+        <f t="shared" si="2"/>
+        <v>4.5561470843134888E-2</v>
+      </c>
+      <c r="E148">
         <v>2586.58</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>2576.0500000000002</v>
       </c>
-      <c r="F148">
-        <v>98.854948919131544</v>
-      </c>
       <c r="G148">
-        <v>-4.3971861471861473</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98.910552397176048</v>
+      </c>
+      <c r="H148" s="1">
+        <f>[1]Hoja3!C1791</f>
+        <v>-157.14417249417511</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2015</v>
       </c>
@@ -3780,19 +5780,24 @@
         <v>84.9</v>
       </c>
       <c r="D149">
+        <f t="shared" si="2"/>
+        <v>4.6339659847177694E-2</v>
+      </c>
+      <c r="E149">
         <v>2495.36</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>2388.06</v>
       </c>
-      <c r="F149">
-        <v>99.861936212284661</v>
-      </c>
       <c r="G149">
-        <v>-57.888571428571396</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99.830141755594255</v>
+      </c>
+      <c r="H149" s="1">
+        <f>[1]Hoja3!C1792</f>
+        <v>-522.62873223268411</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2015</v>
       </c>
@@ -3803,19 +5808,24 @@
         <v>85.12</v>
       </c>
       <c r="D150">
+        <f t="shared" si="2"/>
+        <v>4.4032871335704771E-2</v>
+      </c>
+      <c r="E150">
         <v>2439.09</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>2533.79</v>
       </c>
-      <c r="F150">
-        <v>99.686499737059364</v>
-      </c>
       <c r="G150">
-        <v>-60.172525030525037</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99.696498250549269</v>
+      </c>
+      <c r="H150" s="1">
+        <f>[1]Hoja3!C1793</f>
+        <v>-925.16877622377297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2015</v>
       </c>
@@ -3826,19 +5836,24 @@
         <v>85.21</v>
       </c>
       <c r="D151">
+        <f t="shared" si="2"/>
+        <v>4.4112241146918141E-2</v>
+      </c>
+      <c r="E151">
         <v>2554.94</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>2585.11</v>
       </c>
-      <c r="F151">
-        <v>99.59688650487179</v>
-      </c>
       <c r="G151">
-        <v>-31.584913752913735</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99.514635119867691</v>
+      </c>
+      <c r="H151" s="1">
+        <f>[1]Hoja3!C1794</f>
+        <v>-540.50433566433617</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2015</v>
       </c>
@@ -3849,19 +5864,24 @@
         <v>85.37</v>
       </c>
       <c r="D152">
+        <f t="shared" si="2"/>
+        <v>4.4536889758962417E-2</v>
+      </c>
+      <c r="E152">
         <v>2731.9</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>2866.04</v>
       </c>
-      <c r="F152">
-        <v>101.27438010618289</v>
-      </c>
       <c r="G152">
-        <v>-17.148753968253885</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101.29605513113475</v>
+      </c>
+      <c r="H152" s="1">
+        <f>[1]Hoja3!C1795</f>
+        <v>-458.11015405647527</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2015</v>
       </c>
@@ -3872,19 +5892,24 @@
         <v>85.78</v>
       </c>
       <c r="D153">
+        <f t="shared" si="2"/>
+        <v>4.7374847374847207E-2</v>
+      </c>
+      <c r="E153">
         <v>3023.29</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>3101.1</v>
       </c>
-      <c r="F153">
-        <v>99.954226513152321</v>
-      </c>
       <c r="G153">
-        <v>-79.276583333333306</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99.964284882303474</v>
+      </c>
+      <c r="H153" s="1">
+        <f>[1]Hoja3!C1796</f>
+        <v>-495.73095375638513</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2015</v>
       </c>
@@ -3895,19 +5920,24 @@
         <v>86.39</v>
       </c>
       <c r="D154">
+        <f t="shared" si="2"/>
+        <v>5.3408120960858341E-2</v>
+      </c>
+      <c r="E154">
         <v>3073.12</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>3121.94</v>
       </c>
-      <c r="F154">
-        <v>101.00146418571545</v>
-      </c>
       <c r="G154">
-        <v>-71.417273504273538</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101.01148752810178</v>
+      </c>
+      <c r="H154" s="1">
+        <f>[1]Hoja3!C1797</f>
+        <v>-456.05990675990097</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2015</v>
       </c>
@@ -3918,19 +5948,24 @@
         <v>86.98</v>
       </c>
       <c r="D155">
+        <f t="shared" si="2"/>
+        <v>5.8923788653518328E-2</v>
+      </c>
+      <c r="E155">
         <v>2937.85</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>2897.83</v>
       </c>
-      <c r="F155">
-        <v>101.03061556662954</v>
-      </c>
       <c r="G155">
-        <v>20.517273809523772</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101.02898319365544</v>
+      </c>
+      <c r="H155" s="1">
+        <f>[1]Hoja3!C1798</f>
+        <v>-749.35780053279586</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2015</v>
       </c>
@@ -3941,19 +5976,24 @@
         <v>87.51</v>
       </c>
       <c r="D156">
+        <f t="shared" si="2"/>
+        <v>6.3951367781155177E-2</v>
+      </c>
+      <c r="E156">
         <v>2996.67</v>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>3101.1</v>
       </c>
-      <c r="F156">
-        <v>99.951221962607704</v>
-      </c>
       <c r="G156">
-        <v>-15.63331236745708</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99.941653042633078</v>
+      </c>
+      <c r="H156" s="1">
+        <f>[1]Hoja3!C1799</f>
+        <v>-524.61473776223602</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2015</v>
       </c>
@@ -3964,19 +6004,24 @@
         <v>88.05</v>
       </c>
       <c r="D157">
+        <f t="shared" si="2"/>
+        <v>6.7660967624590729E-2</v>
+      </c>
+      <c r="E157">
         <v>3244.51</v>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>3149.47</v>
       </c>
-      <c r="F157">
-        <v>100.64700059529095</v>
-      </c>
       <c r="G157">
-        <v>-162.4316423160173</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100.66501420245476</v>
+      </c>
+      <c r="H157" s="1">
+        <f>[1]Hoja3!C1800</f>
+        <v>-967.82971879971603</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2016</v>
       </c>
@@ -3987,19 +6032,24 @@
         <v>89.19</v>
       </c>
       <c r="D158">
+        <f t="shared" si="2"/>
+        <v>7.4578313253012007E-2</v>
+      </c>
+      <c r="E158">
         <v>3284.03</v>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>3287.31</v>
       </c>
-      <c r="F158">
-        <v>100.87689813405787</v>
-      </c>
       <c r="G158">
-        <v>-145.21445098039214</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100.86071800077698</v>
+      </c>
+      <c r="H158" s="1">
+        <f>[1]Hoja3!C1801</f>
+        <v>-721.45459725459614</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2016</v>
       </c>
@@ -4010,19 +6060,24 @@
         <v>90.33</v>
       </c>
       <c r="D159">
+        <f t="shared" si="2"/>
+        <v>7.5869461648404135E-2</v>
+      </c>
+      <c r="E159">
         <v>3357.5</v>
       </c>
-      <c r="E159">
+      <c r="F159">
         <v>3306</v>
       </c>
-      <c r="F159">
-        <v>102.53059704484291</v>
-      </c>
       <c r="G159">
-        <v>-143.74422342995172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102.56761876116431</v>
+      </c>
+      <c r="H159" s="1">
+        <f>[1]Hoja3!C1802</f>
+        <v>-456.39884485884261</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2016</v>
       </c>
@@ -4033,19 +6088,24 @@
         <v>91.18</v>
       </c>
       <c r="D160">
+        <f t="shared" si="2"/>
+        <v>7.9692125518058043E-2</v>
+      </c>
+      <c r="E160">
         <v>3145.26</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>3022.35</v>
       </c>
-      <c r="F160">
-        <v>101.67500803394537</v>
-      </c>
       <c r="G160">
-        <v>-70.369329004328989</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101.83863187914648</v>
+      </c>
+      <c r="H160" s="1">
+        <f>[1]Hoja3!C1803</f>
+        <v>-619.91689976689804</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2016</v>
       </c>
@@ -4056,19 +6116,24 @@
         <v>91.63</v>
       </c>
       <c r="D161">
+        <f t="shared" si="2"/>
+        <v>7.9269729093050412E-2</v>
+      </c>
+      <c r="E161">
         <v>2998.71</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>2851.14</v>
       </c>
-      <c r="F161">
-        <v>101.48154361275587</v>
-      </c>
       <c r="G161">
-        <v>-20.970476190476177</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101.36234693941721</v>
+      </c>
+      <c r="H161" s="1">
+        <f>[1]Hoja3!C1804</f>
+        <v>225.3607782568281</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2016</v>
       </c>
@@ -4079,19 +6144,24 @@
         <v>92.1</v>
       </c>
       <c r="D162">
+        <f t="shared" si="2"/>
+        <v>8.2001879699248104E-2</v>
+      </c>
+      <c r="E162">
         <v>2988.38</v>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>3069.17</v>
       </c>
-      <c r="F162">
-        <v>101.79056351894855</v>
-      </c>
       <c r="G162">
-        <v>-24.572775657091483</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101.79031416360841</v>
+      </c>
+      <c r="H162" s="1">
+        <f>[1]Hoja3!C1805</f>
+        <v>-506.46248251748398</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2016</v>
       </c>
@@ -4102,19 +6172,24 @@
         <v>92.54</v>
       </c>
       <c r="D163">
+        <f t="shared" si="2"/>
+        <v>8.6022767280835799E-2</v>
+      </c>
+      <c r="E163">
         <v>2991.68</v>
       </c>
-      <c r="E163">
+      <c r="F163">
         <v>2916.15</v>
       </c>
-      <c r="F163">
-        <v>101.92837128898755</v>
-      </c>
       <c r="G163">
-        <v>-4.8605019882078579</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101.82820416237186</v>
+      </c>
+      <c r="H163" s="1">
+        <f>[1]Hoja3!C1806</f>
+        <v>-305.01832167831662</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2016</v>
       </c>
@@ -4125,19 +6200,24 @@
         <v>93.02</v>
       </c>
       <c r="D164">
+        <f t="shared" si="2"/>
+        <v>8.960993323181432E-2</v>
+      </c>
+      <c r="E164">
         <v>2963.99</v>
       </c>
-      <c r="E164">
+      <c r="F164">
         <v>3081.75</v>
       </c>
-      <c r="F164">
-        <v>99.651336958323711</v>
-      </c>
       <c r="G164">
-        <v>-0.40946475256768622</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99.668480438138943</v>
+      </c>
+      <c r="H164" s="1">
+        <f>[1]Hoja3!C1807</f>
+        <v>-87.626937273249041</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2016</v>
       </c>
@@ -4148,19 +6228,24 @@
         <v>92.73</v>
       </c>
       <c r="D165">
+        <f t="shared" si="2"/>
+        <v>8.1021217066915341E-2</v>
+      </c>
+      <c r="E165">
         <v>2963.82</v>
       </c>
-      <c r="E165">
+      <c r="F165">
         <v>2933.82</v>
       </c>
-      <c r="F165">
-        <v>103.23665911440136</v>
-      </c>
       <c r="G165">
-        <v>-30.661583333333311</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103.24108524237742</v>
+      </c>
+      <c r="H165" s="1">
+        <f>[1]Hoja3!C1808</f>
+        <v>-244.5129402883731</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2016</v>
       </c>
@@ -4171,19 +6256,24 @@
         <v>92.68</v>
       </c>
       <c r="D166">
+        <f t="shared" si="2"/>
+        <v>7.2809352934367411E-2</v>
+      </c>
+      <c r="E166">
         <v>2921.15</v>
       </c>
-      <c r="E166">
+      <c r="F166">
         <v>2879.95</v>
       </c>
-      <c r="F166">
-        <v>103.63105157226551</v>
-      </c>
       <c r="G166">
-        <v>-52.78658929374717</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103.63827816902871</v>
+      </c>
+      <c r="H166" s="1">
+        <f>[1]Hoja3!C1809</f>
+        <v>-29.119300699298947</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2016</v>
       </c>
@@ -4194,19 +6284,24 @@
         <v>92.62</v>
       </c>
       <c r="D167">
+        <f t="shared" si="2"/>
+        <v>6.4842492527017681E-2</v>
+      </c>
+      <c r="E167">
         <v>2932.61</v>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>2967.66</v>
       </c>
-      <c r="F167">
-        <v>102.47822822267578</v>
-      </c>
       <c r="G167">
-        <v>36.361797619047564</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102.47640931729836</v>
+      </c>
+      <c r="H167" s="1">
+        <f>[1]Hoja3!C1810</f>
+        <v>-159.8527500277537</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2016</v>
       </c>
@@ -4217,19 +6312,24 @@
         <v>92.73</v>
       </c>
       <c r="D168">
+        <f t="shared" si="2"/>
+        <v>5.9650325677065519E-2</v>
+      </c>
+      <c r="E168">
         <v>3106.4</v>
       </c>
-      <c r="E168">
+      <c r="F168">
         <v>3165.09</v>
       </c>
-      <c r="F168">
-        <v>103.15174011709252</v>
-      </c>
       <c r="G168">
-        <v>117.60190130775663</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103.14004351026058</v>
+      </c>
+      <c r="H168" s="1">
+        <f>[1]Hoja3!C1811</f>
+        <v>-230.48446063196184</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2016</v>
       </c>
@@ -4240,19 +6340,24 @@
         <v>93.11</v>
       </c>
       <c r="D169">
+        <f t="shared" si="2"/>
+        <v>5.7467348097671733E-2</v>
+      </c>
+      <c r="E169">
         <v>3009.53</v>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>3000.71</v>
       </c>
-      <c r="F169">
-        <v>103.83503936652075</v>
-      </c>
       <c r="G169">
-        <v>-51.212661923860452</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103.85490640122936</v>
+      </c>
+      <c r="H169" s="1">
+        <f>[1]Hoja3!C1812</f>
+        <v>178.19385022384404</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2017</v>
       </c>
@@ -4263,19 +6368,24 @@
         <v>94.07</v>
       </c>
       <c r="D170">
+        <f t="shared" si="2"/>
+        <v>5.4714654109204952E-2</v>
+      </c>
+      <c r="E170">
         <v>2944.65</v>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>2936.66</v>
       </c>
-      <c r="F170">
-        <v>102.45119022880826</v>
-      </c>
       <c r="G170">
-        <v>-72.173778711484587</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102.42562084978427</v>
+      </c>
+      <c r="H170" s="1">
+        <f>[1]Hoja3!C1813</f>
+        <v>-34.121263921270042</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2017</v>
       </c>
@@ -4286,19 +6396,24 @@
         <v>95.01</v>
       </c>
       <c r="D171">
+        <f t="shared" si="2"/>
+        <v>5.1810029890401843E-2</v>
+      </c>
+      <c r="E171">
         <v>2881.68</v>
       </c>
-      <c r="E171">
+      <c r="F171">
         <v>2896.27</v>
       </c>
-      <c r="F171">
-        <v>103.3505179097197</v>
-      </c>
       <c r="G171">
-        <v>-129.996931763285</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103.34544502746299</v>
+      </c>
+      <c r="H171" s="1">
+        <f>[1]Hoja3!C1814</f>
+        <v>537.44707043443623</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2017</v>
       </c>
@@ -4309,19 +6424,24 @@
         <v>95.46</v>
       </c>
       <c r="D172">
+        <f t="shared" si="2"/>
+        <v>4.6940118447027723E-2</v>
+      </c>
+      <c r="E172">
         <v>2943.49</v>
       </c>
-      <c r="E172">
+      <c r="F172">
         <v>2880.24</v>
       </c>
-      <c r="F172">
-        <v>102.53423888558247</v>
-      </c>
       <c r="G172">
-        <v>94.827278138528129</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102.64106678448866</v>
+      </c>
+      <c r="H172" s="1">
+        <f>[1]Hoja3!C1815</f>
+        <v>694.0806785806783</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2017</v>
       </c>
@@ -4332,19 +6452,24 @@
         <v>95.91</v>
       </c>
       <c r="D173">
+        <f t="shared" si="2"/>
+        <v>4.6709592928080301E-2</v>
+      </c>
+      <c r="E173">
         <v>2873.55</v>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>2947.85</v>
       </c>
-      <c r="F173">
-        <v>102.62850751791575</v>
-      </c>
       <c r="G173">
-        <v>-49.819809523809539</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102.57987362096115</v>
+      </c>
+      <c r="H173" s="1">
+        <f>[1]Hoja3!C1816</f>
+        <v>-96.502858106802023</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2017</v>
       </c>
@@ -4355,19 +6480,24 @@
         <v>96.12</v>
       </c>
       <c r="D174">
+        <f t="shared" si="2"/>
+        <v>4.3648208469055483E-2</v>
+      </c>
+      <c r="E174">
         <v>2924</v>
       </c>
-      <c r="E174">
+      <c r="F174">
         <v>2920.42</v>
       </c>
-      <c r="F174">
-        <v>103.18854935237613</v>
-      </c>
       <c r="G174">
-        <v>43.278869079750677</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103.1866458642138</v>
+      </c>
+      <c r="H174" s="1">
+        <f>[1]Hoja3!C1817</f>
+        <v>381.49594794094719</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2017</v>
       </c>
@@ -4378,19 +6508,24 @@
         <v>96.23</v>
       </c>
       <c r="D175">
+        <f t="shared" si="2"/>
+        <v>3.9874648800518608E-2</v>
+      </c>
+      <c r="E175">
         <v>2958.36</v>
       </c>
-      <c r="E175">
+      <c r="F175">
         <v>3038.26</v>
       </c>
-      <c r="F175">
-        <v>104.58080295997989</v>
-      </c>
       <c r="G175">
-        <v>-11.10390756096325</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104.49949379185337</v>
+      </c>
+      <c r="H175" s="1">
+        <f>[1]Hoja3!C1818</f>
+        <v>84.785045325044166</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2017</v>
       </c>
@@ -4401,19 +6536,24 @@
         <v>96.18</v>
       </c>
       <c r="D176">
+        <f t="shared" si="2"/>
+        <v>3.3971188991614776E-2</v>
+      </c>
+      <c r="E176">
         <v>3038.76</v>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>2995.23</v>
       </c>
-      <c r="F176">
-        <v>103.08547797788712</v>
-      </c>
       <c r="G176">
-        <v>34.458306145265141</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103.10282236578234</v>
+      </c>
+      <c r="H176" s="1">
+        <f>[1]Hoja3!C1819</f>
+        <v>170.47292804661288</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2017</v>
       </c>
@@ -4424,19 +6564,24 @@
         <v>96.32</v>
       </c>
       <c r="D177">
+        <f t="shared" si="2"/>
+        <v>3.871454761134463E-2</v>
+      </c>
+      <c r="E177">
         <v>2972.62</v>
       </c>
-      <c r="E177">
+      <c r="F177">
         <v>2937.09</v>
       </c>
-      <c r="F177">
-        <v>104.1501345754575</v>
-      </c>
       <c r="G177">
-        <v>-5.1020000000000039</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104.15022203443556</v>
+      </c>
+      <c r="H177" s="1">
+        <f>[1]Hoja3!C1820</f>
+        <v>188.89951762407691</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2017</v>
       </c>
@@ -4447,19 +6592,24 @@
         <v>96.36</v>
       </c>
       <c r="D178">
+        <f t="shared" si="2"/>
+        <v>3.9706517047906731E-2</v>
+      </c>
+      <c r="E178">
         <v>2918.49</v>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>2936.67</v>
       </c>
-      <c r="F178">
-        <v>104.20111405104542</v>
-      </c>
       <c r="G178">
-        <v>-32.126391925326118</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104.2108578188885</v>
+      </c>
+      <c r="H178" s="1">
+        <f>[1]Hoja3!C1821</f>
+        <v>88.023123543122892</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2017</v>
       </c>
@@ -4470,19 +6620,24 @@
         <v>96.37</v>
       </c>
       <c r="D179">
+        <f t="shared" si="2"/>
+        <v>4.0488015547397893E-2</v>
+      </c>
+      <c r="E179">
         <v>2955.06</v>
       </c>
-      <c r="E179">
+      <c r="F179">
         <v>3011.44</v>
       </c>
-      <c r="F179">
-        <v>103.57955342354916</v>
-      </c>
       <c r="G179">
-        <v>25.743832706766938</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103.58966826111585</v>
+      </c>
+      <c r="H179" s="1">
+        <f>[1]Hoja3!C1822</f>
+        <v>-232.57942857796252</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2017</v>
       </c>
@@ -4493,19 +6648,24 @@
         <v>96.55</v>
       </c>
       <c r="D180">
+        <f t="shared" si="2"/>
+        <v>4.1194866817642506E-2</v>
+      </c>
+      <c r="E180">
         <v>3013.17</v>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>3006.09</v>
       </c>
-      <c r="F180">
-        <v>104.03534988438938</v>
-      </c>
       <c r="G180">
-        <v>29.60634575220098</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104.03135342724742</v>
+      </c>
+      <c r="H180" s="1">
+        <f>[1]Hoja3!C1823</f>
+        <v>-340.54641349391773</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2017</v>
       </c>
@@ -4516,19 +6676,24 @@
         <v>96.92</v>
       </c>
       <c r="D181">
+        <f t="shared" si="2"/>
+        <v>4.0919342712920193E-2</v>
+      </c>
+      <c r="E181">
         <v>2991.42</v>
       </c>
-      <c r="E181">
+      <c r="F181">
         <v>2984</v>
       </c>
-      <c r="F181">
-        <v>105.46786933573624</v>
-      </c>
       <c r="G181">
-        <v>-61.652073688566304</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105.49023625621317</v>
+      </c>
+      <c r="H181" s="1">
+        <f>[1]Hoja3!C1824</f>
+        <v>-218.49470196470611</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2018</v>
       </c>
@@ -4539,19 +6704,24 @@
         <v>97.53</v>
       </c>
       <c r="D182">
+        <f t="shared" si="2"/>
+        <v>3.6781120442223925E-2</v>
+      </c>
+      <c r="E182">
         <v>2867.68</v>
       </c>
-      <c r="E182">
+      <c r="F182">
         <v>2844.14</v>
       </c>
-      <c r="F182">
-        <v>104.10330221296363</v>
-      </c>
       <c r="G182">
-        <v>-11.513302521008399</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104.08385807174511</v>
+      </c>
+      <c r="H182" s="1">
+        <f>[1]Hoja3!C1825</f>
+        <v>257.97132867132586</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2018</v>
       </c>
@@ -4562,19 +6732,24 @@
         <v>98.22</v>
       </c>
       <c r="D183">
+        <f t="shared" si="2"/>
+        <v>3.3785917271865973E-2</v>
+      </c>
+      <c r="E183">
         <v>2860</v>
       </c>
-      <c r="E183">
+      <c r="F183">
         <v>2855.93</v>
       </c>
-      <c r="F183">
-        <v>104.99518684037726</v>
-      </c>
       <c r="G183">
-        <v>-94.571336525189778</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104.99783666398537</v>
+      </c>
+      <c r="H183" s="1">
+        <f>[1]Hoja3!C1826</f>
+        <v>-334.83646669120071</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2018</v>
       </c>
@@ -4585,19 +6760,24 @@
         <v>98.45</v>
       </c>
       <c r="D184">
+        <f t="shared" si="2"/>
+        <v>3.1322019694112857E-2</v>
+      </c>
+      <c r="E184">
         <v>2852.46</v>
       </c>
-      <c r="E184">
+      <c r="F184">
         <v>2780.47</v>
       </c>
-      <c r="F184">
-        <v>105.7141111879541</v>
-      </c>
       <c r="G184">
-        <v>-47.971214508530679</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105.90265454187396</v>
+      </c>
+      <c r="H184" s="1">
+        <f>[1]Hoja3!C1827</f>
+        <v>-288.64151774151878</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2018</v>
       </c>
@@ -4608,19 +6788,24 @@
         <v>98.91</v>
       </c>
       <c r="D185">
+        <f t="shared" si="2"/>
+        <v>3.1279324366593642E-2</v>
+      </c>
+      <c r="E185">
         <v>2765.96</v>
       </c>
-      <c r="E185">
+      <c r="F185">
         <v>2806.28</v>
       </c>
-      <c r="F185">
-        <v>105.14467130668802</v>
-      </c>
       <c r="G185">
-        <v>-66.464809523809549</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105.00071029915689</v>
+      </c>
+      <c r="H185" s="1">
+        <f>[1]Hoja3!C1828</f>
+        <v>-96.936424540372855</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2018</v>
       </c>
@@ -4631,19 +6816,24 @@
         <v>99.16</v>
       </c>
       <c r="D186">
+        <f t="shared" si="2"/>
+        <v>3.162713275072826E-2</v>
+      </c>
+      <c r="E186">
         <v>2862.95</v>
       </c>
-      <c r="E186">
+      <c r="F186">
         <v>2879.32</v>
       </c>
-      <c r="F186">
-        <v>105.55648125105286</v>
-      </c>
       <c r="G186">
-        <v>28.290188524195088</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105.54891891772043</v>
+      </c>
+      <c r="H186" s="1">
+        <f>[1]Hoja3!C1829</f>
+        <v>387.21412975912426</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2018</v>
       </c>
@@ -4654,19 +6844,24 @@
         <v>99.31</v>
       </c>
       <c r="D187">
+        <f t="shared" si="2"/>
+        <v>3.2006650732619768E-2</v>
+      </c>
+      <c r="E187">
         <v>2893.22</v>
       </c>
-      <c r="E187">
+      <c r="F187">
         <v>2930.8</v>
       </c>
-      <c r="F187">
-        <v>106.33127676198724</v>
-      </c>
       <c r="G187">
-        <v>6.3248058893290988</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106.26394551266625</v>
+      </c>
+      <c r="H187" s="1">
+        <f>[1]Hoja3!C1830</f>
+        <v>64.739927479929065</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2018</v>
       </c>
@@ -4677,19 +6872,24 @@
         <v>99.18</v>
       </c>
       <c r="D188">
+        <f t="shared" si="2"/>
+        <v>3.1191515907673217E-2</v>
+      </c>
+      <c r="E188">
         <v>2885.55</v>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>2875.72</v>
       </c>
-      <c r="F188">
-        <v>106.00672076065594</v>
-      </c>
       <c r="G188">
-        <v>-22.093151344613432</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106.01205553081539</v>
+      </c>
+      <c r="H188" s="1">
+        <f>[1]Hoja3!C1831</f>
+        <v>-189.95564338196095</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2018</v>
       </c>
@@ -4700,19 +6900,24 @@
         <v>99.3</v>
       </c>
       <c r="D189">
+        <f t="shared" si="2"/>
+        <v>3.0938538205980137E-2</v>
+      </c>
+      <c r="E189">
         <v>2959.57</v>
       </c>
-      <c r="E189">
+      <c r="F189">
         <v>3027.39</v>
       </c>
-      <c r="F189">
-        <v>107.45644048339489</v>
-      </c>
       <c r="G189">
-        <v>-33.306791666666641</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107.44517141251231</v>
+      </c>
+      <c r="H189" s="1">
+        <f>[1]Hoja3!C1832</f>
+        <v>-376.65317597861008</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2018</v>
       </c>
@@ -4723,19 +6928,24 @@
         <v>99.47</v>
       </c>
       <c r="D190">
+        <f t="shared" si="2"/>
+        <v>3.2274802822747972E-2</v>
+      </c>
+      <c r="E190">
         <v>3037.8</v>
       </c>
-      <c r="E190">
+      <c r="F190">
         <v>2972.18</v>
       </c>
-      <c r="F190">
-        <v>107.09177784999201</v>
-      </c>
       <c r="G190">
-        <v>-48.317766925326168</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107.09564068087604</v>
+      </c>
+      <c r="H190" s="1">
+        <f>[1]Hoja3!C1833</f>
+        <v>231.45342657342485</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2018</v>
       </c>
@@ -4746,19 +6956,24 @@
         <v>99.59</v>
       </c>
       <c r="D191">
+        <f t="shared" si="2"/>
+        <v>3.3412887828162319E-2</v>
+      </c>
+      <c r="E191">
         <v>3080.48</v>
       </c>
-      <c r="E191">
+      <c r="F191">
         <v>3202.44</v>
       </c>
-      <c r="F191">
-        <v>107.20802784048063</v>
-      </c>
       <c r="G191">
-        <v>11.927201127819586</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107.21539641685696</v>
+      </c>
+      <c r="H191" s="1">
+        <f>[1]Hoja3!C1834</f>
+        <v>194.45628146363742</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2018</v>
       </c>
@@ -4769,19 +6984,24 @@
         <v>99.7</v>
       </c>
       <c r="D192">
+        <f t="shared" si="2"/>
+        <v>3.2625582599689285E-2</v>
+      </c>
+      <c r="E192">
         <v>3198.13</v>
       </c>
-      <c r="E192">
+      <c r="F192">
         <v>3240.02</v>
       </c>
-      <c r="F192">
-        <v>107.57623796012801</v>
-      </c>
       <c r="G192">
-        <v>-12.66198758113228</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107.57298816472276</v>
+      </c>
+      <c r="H192" s="1">
+        <f>[1]Hoja3!C1835</f>
+        <v>-238.71471186221697</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2018</v>
       </c>
@@ -4792,19 +7012,24 @@
         <v>100</v>
       </c>
       <c r="D193">
+        <f t="shared" si="2"/>
+        <v>3.1778786628146927E-2</v>
+      </c>
+      <c r="E193">
         <v>3212.48</v>
       </c>
-      <c r="E193">
+      <c r="F193">
         <v>3249.75</v>
       </c>
-      <c r="F193">
-        <v>107.33293975583635</v>
-      </c>
       <c r="G193">
-        <v>-135.00443732492997</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107.37799799858021</v>
+      </c>
+      <c r="H193" s="1">
+        <f>[1]Hoja3!C1836</f>
+        <v>-756.58392755392492</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2019</v>
       </c>
@@ -4815,19 +7040,24 @@
         <v>100.6</v>
       </c>
       <c r="D194">
+        <f t="shared" si="2"/>
+        <v>3.1477494104378057E-2</v>
+      </c>
+      <c r="E194">
         <v>3161.91</v>
       </c>
-      <c r="E194">
+      <c r="F194">
         <v>3163.46</v>
       </c>
-      <c r="F194">
-        <v>107.89342798339464</v>
-      </c>
       <c r="G194">
-        <v>-78.178469187675077</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107.88577626211273</v>
+      </c>
+      <c r="H194" s="1">
+        <f>[1]Hoja3!C1837</f>
+        <v>-511.75089355089108</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2019</v>
       </c>
@@ -4838,19 +7068,24 @@
         <v>101.18</v>
       </c>
       <c r="D195">
+        <f t="shared" si="2"/>
+        <v>3.0136428425982631E-2</v>
+      </c>
+      <c r="E195">
         <v>3115.15</v>
       </c>
-      <c r="E195">
+      <c r="F195">
         <v>3072.01</v>
       </c>
-      <c r="F195">
-        <v>108.79606116472924</v>
-      </c>
       <c r="G195">
-        <v>-71.811130175983436</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108.82874197670516</v>
+      </c>
+      <c r="H195" s="1">
+        <f>[1]Hoja3!C1838</f>
+        <v>-218.28866988253526</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2019</v>
       </c>
@@ -4861,19 +7096,24 @@
         <v>101.62</v>
       </c>
       <c r="D196">
+        <f t="shared" si="2"/>
+        <v>3.2199085830370677E-2</v>
+      </c>
+      <c r="E196">
         <v>3125.34</v>
       </c>
-      <c r="E196">
+      <c r="F196">
         <v>3174.79</v>
       </c>
-      <c r="F196">
-        <v>107.42992795954768</v>
-      </c>
       <c r="G196">
-        <v>-51.598181991175906</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107.52061093618197</v>
+      </c>
+      <c r="H196" s="1">
+        <f>[1]Hoja3!C1839</f>
+        <v>-319.7073038073047</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2019</v>
       </c>
@@ -4884,19 +7124,24 @@
         <v>102.12</v>
       </c>
       <c r="D197">
+        <f t="shared" si="2"/>
+        <v>3.2453745829542191E-2</v>
+      </c>
+      <c r="E197">
         <v>3155.22</v>
       </c>
-      <c r="E197">
+      <c r="F197">
         <v>3247.72</v>
       </c>
-      <c r="F197">
-        <v>109.10238408869304</v>
-      </c>
       <c r="G197">
-        <v>-48.864809523809527</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109.00167999163747</v>
+      </c>
+      <c r="H197" s="1">
+        <f>[1]Hoja3!C1840</f>
+        <v>14.578277424330963</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2019</v>
       </c>
@@ -4907,19 +7152,24 @@
         <v>102.44</v>
       </c>
       <c r="D198">
+        <f t="shared" si="2"/>
+        <v>3.3077853973376481E-2</v>
+      </c>
+      <c r="E198">
         <v>3310.49</v>
       </c>
-      <c r="E198">
+      <c r="F198">
         <v>3357.82</v>
       </c>
-      <c r="F198">
-        <v>109.94779193710644</v>
-      </c>
       <c r="G198">
-        <v>9.701541181199957</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109.93627150778084</v>
+      </c>
+      <c r="H198" s="1">
+        <f>[1]Hoja3!C1841</f>
+        <v>592.07540922040516</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2019</v>
       </c>
@@ -4930,19 +7180,24 @@
         <v>102.71</v>
       </c>
       <c r="D199">
+        <f t="shared" si="2"/>
+        <v>3.4236229986909672E-2</v>
+      </c>
+      <c r="E199">
         <v>3256.02</v>
       </c>
-      <c r="E199">
+      <c r="F199">
         <v>3205.67</v>
       </c>
-      <c r="F199">
-        <v>108.80123888077323</v>
-      </c>
       <c r="G199">
-        <v>-59.010305221781977</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108.755962895636</v>
+      </c>
+      <c r="H199" s="1">
+        <f>[1]Hoja3!C1842</f>
+        <v>-124.41697487697593</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2019</v>
       </c>
@@ -4953,19 +7208,24 @@
         <v>102.94</v>
       </c>
       <c r="D200">
+        <f t="shared" si="2"/>
+        <v>3.7910869126839941E-2</v>
+      </c>
+      <c r="E200">
         <v>3208.11</v>
       </c>
-      <c r="E200">
+      <c r="F200">
         <v>3296.85</v>
       </c>
-      <c r="F200">
-        <v>110.45541620471748</v>
-      </c>
       <c r="G200">
-        <v>-65.883407754869836</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110.45052071820092</v>
+      </c>
+      <c r="H200" s="1">
+        <f>[1]Hoja3!C1843</f>
+        <v>-240.73342115974265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2019</v>
       </c>
@@ -4976,19 +7236,24 @@
         <v>103.03</v>
       </c>
       <c r="D201">
+        <f t="shared" si="2"/>
+        <v>3.7562940584088711E-2</v>
+      </c>
+      <c r="E201">
         <v>3412.65</v>
       </c>
-      <c r="E201">
+      <c r="F201">
         <v>3427.29</v>
       </c>
-      <c r="F201">
-        <v>110.35033121147968</v>
-      </c>
       <c r="G201">
-        <v>-86.0588657407407</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110.32948032837035</v>
+      </c>
+      <c r="H201" s="1">
+        <f>[1]Hoja3!C1844</f>
+        <v>-229.79021301564489</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2019</v>
       </c>
@@ -4999,19 +7264,24 @@
         <v>103.26</v>
       </c>
       <c r="D202">
+        <f t="shared" si="2"/>
+        <v>3.8101940283502556E-2</v>
+      </c>
+      <c r="E202">
         <v>3399.62</v>
       </c>
-      <c r="E202">
+      <c r="F202">
         <v>3462.01</v>
       </c>
-      <c r="F202">
-        <v>109.48461671330438</v>
-      </c>
       <c r="G202">
-        <v>-99.404459233018486</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109.48597354087201</v>
+      </c>
+      <c r="H202" s="1">
+        <f>[1]Hoja3!C1845</f>
+        <v>-100.85633773633913</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2019</v>
       </c>
@@ -5022,19 +7292,24 @@
         <v>103.43</v>
       </c>
       <c r="D203">
+        <f t="shared" si="2"/>
+        <v>3.8558088161462001E-2</v>
+      </c>
+      <c r="E203">
         <v>3437.73</v>
       </c>
-      <c r="E203">
+      <c r="F203">
         <v>3389.94</v>
       </c>
-      <c r="F203">
-        <v>110.56228492972538</v>
-      </c>
       <c r="G203">
-        <v>-1.0994699248120696</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110.58953038385386</v>
+      </c>
+      <c r="H203" s="1">
+        <f>[1]Hoja3!C1846</f>
+        <v>139.55055755790727</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2019</v>
       </c>
@@ -5045,19 +7320,24 @@
         <v>103.54</v>
       </c>
       <c r="D204">
+        <f t="shared" si="2"/>
+        <v>3.8515546639919851E-2</v>
+      </c>
+      <c r="E204">
         <v>3411.42</v>
       </c>
-      <c r="E204">
+      <c r="F204">
         <v>3522.48</v>
       </c>
-      <c r="F204">
-        <v>110.1453434360983</v>
-      </c>
       <c r="G204">
-        <v>-50.545487581132249</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110.1366149070917</v>
+      </c>
+      <c r="H204" s="1">
+        <f>[1]Hoja3!C1847</f>
+        <v>-375.09662069412707</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2019</v>
       </c>
@@ -5068,19 +7348,24 @@
         <v>103.8</v>
       </c>
       <c r="D205">
+        <f t="shared" si="2"/>
+        <v>3.8000000000000034E-2</v>
+      </c>
+      <c r="E205">
         <v>3383</v>
       </c>
-      <c r="E205">
+      <c r="F205">
         <v>3277.14</v>
       </c>
-      <c r="F205">
-        <v>110.6524133915527</v>
-      </c>
       <c r="G205">
-        <v>-72.417662169650441</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110.7000744526802</v>
+      </c>
+      <c r="H205" s="1">
+        <f>[1]Hoja3!C1848</f>
+        <v>38.286442816438921</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2020</v>
       </c>
@@ -5091,19 +7376,24 @@
         <v>104.24</v>
       </c>
       <c r="D206">
+        <f t="shared" si="2"/>
+        <v>3.6182902584493082E-2</v>
+      </c>
+      <c r="E206">
         <v>3317.37</v>
       </c>
-      <c r="E206">
+      <c r="F206">
         <v>3411.45</v>
       </c>
-      <c r="F206">
-        <v>111.7669314004302</v>
-      </c>
       <c r="G206">
-        <v>-77.329794945250811</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111.79505077027909</v>
+      </c>
+      <c r="H206" s="1">
+        <f>[1]Hoja3!C1849</f>
+        <v>-175.57412587412296</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2020</v>
       </c>
@@ -5114,19 +7404,24 @@
         <v>104.94</v>
       </c>
       <c r="D207">
+        <f t="shared" ref="D207:D257" si="3">C207/C195-1</f>
+        <v>3.7161494366475534E-2</v>
+      </c>
+      <c r="E207">
         <v>3408.24</v>
       </c>
-      <c r="E207">
+      <c r="F207">
         <v>3539.86</v>
       </c>
-      <c r="F207">
-        <v>111.86461878621392</v>
-      </c>
       <c r="G207">
-        <v>-56.87473017598343</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111.96353725346869</v>
+      </c>
+      <c r="H207" s="1">
+        <f>[1]Hoja3!C1850</f>
+        <v>-216.6144786953007</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2020</v>
       </c>
@@ -5137,19 +7432,24 @@
         <v>105.53</v>
       </c>
       <c r="D208">
+        <f t="shared" si="3"/>
+        <v>3.8476677819326843E-2</v>
+      </c>
+      <c r="E208">
         <v>3870.01</v>
       </c>
-      <c r="E208">
+      <c r="F208">
         <v>4064.81</v>
       </c>
-      <c r="F208">
-        <v>100.66376151581768</v>
-      </c>
       <c r="G208">
-        <v>-51.629087788277388</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100.71293123485458</v>
+      </c>
+      <c r="H208" s="1">
+        <f>[1]Hoja3!C1851</f>
+        <v>-428.53390313390059</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2020</v>
       </c>
@@ -5160,19 +7460,24 @@
         <v>105.7</v>
       </c>
       <c r="D209">
+        <f t="shared" si="3"/>
+        <v>3.5056795926361017E-2</v>
+      </c>
+      <c r="E209">
         <v>3986.56</v>
       </c>
-      <c r="E209">
+      <c r="F209">
         <v>3983.29</v>
       </c>
-      <c r="F209">
-        <v>86.8529993971149</v>
-      </c>
       <c r="G209">
-        <v>-95.921868347338972</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86.737544666252333</v>
+      </c>
+      <c r="H209" s="1">
+        <f>[1]Hoja3!C1852</f>
+        <v>-604.50267495661706</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2020</v>
       </c>
@@ -5183,19 +7488,24 @@
         <v>105.36</v>
       </c>
       <c r="D210">
+        <f t="shared" si="3"/>
+        <v>2.8504490433424401E-2</v>
+      </c>
+      <c r="E210">
         <v>3863.34</v>
       </c>
-      <c r="E210">
+      <c r="F210">
         <v>3718.82</v>
       </c>
-      <c r="F210">
-        <v>90.755994878113569</v>
-      </c>
       <c r="G210">
-        <v>-36.174579220137844</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+        <v>90.731547040105966</v>
+      </c>
+      <c r="H210" s="1">
+        <f>[1]Hoja3!C1853</f>
+        <v>-72.623917378912665</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2020</v>
       </c>
@@ -5206,19 +7516,24 @@
         <v>104.97</v>
       </c>
       <c r="D211">
+        <f t="shared" si="3"/>
+        <v>2.2003699737124016E-2</v>
+      </c>
+      <c r="E211">
         <v>3693</v>
       </c>
-      <c r="E211">
+      <c r="F211">
         <v>3758.91</v>
       </c>
-      <c r="F211">
-        <v>95.261472078821157</v>
-      </c>
       <c r="G211">
-        <v>-40.048905221782036</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95.208308927109911</v>
+      </c>
+      <c r="H211" s="1">
+        <f>[1]Hoja3!C1854</f>
+        <v>239.38672882673313</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2020</v>
       </c>
@@ -5229,19 +7544,24 @@
         <v>104.97</v>
       </c>
       <c r="D212">
+        <f t="shared" si="3"/>
+        <v>1.9720225374004308E-2</v>
+      </c>
+      <c r="E212">
         <v>3660.6</v>
       </c>
-      <c r="E212">
+      <c r="F212">
         <v>3739.49</v>
       </c>
-      <c r="F212">
-        <v>98.815705930017657</v>
-      </c>
       <c r="G212">
-        <v>23.978258911796786</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98.791685820666075</v>
+      </c>
+      <c r="H212" s="1">
+        <f>[1]Hoja3!C1855</f>
+        <v>263.08139365508214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2020</v>
       </c>
@@ -5252,19 +7572,24 @@
         <v>104.96</v>
       </c>
       <c r="D213">
+        <f t="shared" si="3"/>
+        <v>1.8732408036494119E-2</v>
+      </c>
+      <c r="E213">
         <v>3788.1</v>
       </c>
-      <c r="E213">
+      <c r="F213">
         <v>3760.38</v>
       </c>
-      <c r="F213">
-        <v>99.176363974659893</v>
-      </c>
       <c r="G213">
-        <v>-6.6089318783068904</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99.142905385582637</v>
+      </c>
+      <c r="H213" s="1">
+        <f>[1]Hoja3!C1856</f>
+        <v>407.54312031768518</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2020</v>
       </c>
@@ -5275,19 +7600,24 @@
         <v>105.29</v>
       </c>
       <c r="D214">
+        <f t="shared" si="3"/>
+        <v>1.96591129188457E-2</v>
+      </c>
+      <c r="E214">
         <v>3749.86</v>
       </c>
-      <c r="E214">
+      <c r="F214">
         <v>3878.94</v>
       </c>
-      <c r="F214">
-        <v>102.81239360448208</v>
-      </c>
       <c r="G214">
-        <v>-21.656711980271126</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102.80909508670639</v>
+      </c>
+      <c r="H214" s="1">
+        <f>[1]Hoja3!C1857</f>
+        <v>121.04682724683198</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2020</v>
       </c>
@@ -5298,19 +7628,24 @@
         <v>105.23</v>
       </c>
       <c r="D215">
+        <f t="shared" si="3"/>
+        <v>1.740307454316925E-2</v>
+      </c>
+      <c r="E215">
         <v>3833.06</v>
       </c>
-      <c r="E215">
+      <c r="F215">
         <v>3858.56</v>
       </c>
-      <c r="F215">
-        <v>105.44027866965054</v>
-      </c>
       <c r="G215">
-        <v>-27.519482509907185</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105.42906316882514</v>
+      </c>
+      <c r="H215" s="1">
+        <f>[1]Hoja3!C1858</f>
+        <v>-409.57835982100323</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2020</v>
       </c>
@@ -5321,19 +7656,24 @@
         <v>105.08</v>
       </c>
       <c r="D216">
+        <f t="shared" si="3"/>
+        <v>1.4873478848754118E-2</v>
+      </c>
+      <c r="E216">
         <v>3680.67</v>
       </c>
-      <c r="E216">
+      <c r="F216">
         <v>3611.44</v>
       </c>
-      <c r="F216">
-        <v>106.1121055420281</v>
-      </c>
       <c r="G216">
-        <v>-33.382253039543244</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106.12574727964194</v>
+      </c>
+      <c r="H216" s="1">
+        <f>[1]Hoja3!C1859</f>
+        <v>75.772907925404979</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2020</v>
       </c>
@@ -5344,19 +7684,24 @@
         <v>105.48</v>
       </c>
       <c r="D217">
+        <f t="shared" si="3"/>
+        <v>1.6184971098265999E-2</v>
+      </c>
+      <c r="E217">
         <v>3468.5</v>
       </c>
-      <c r="E217">
+      <c r="F217">
         <v>3432.5</v>
       </c>
-      <c r="F217">
-        <v>108.26031102445401</v>
-      </c>
       <c r="G217">
-        <v>-39.245023569179303</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108.33552016831082</v>
+      </c>
+      <c r="H217" s="1">
+        <f>[1]Hoja3!C1860</f>
+        <v>152.69385022385018</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2021</v>
       </c>
@@ -5367,19 +7712,24 @@
         <v>105.91</v>
       </c>
       <c r="D218">
+        <f t="shared" si="3"/>
+        <v>1.602072141212596E-2</v>
+      </c>
+      <c r="E218">
         <v>3494.53</v>
       </c>
-      <c r="E218">
+      <c r="F218">
         <v>3559.46</v>
       </c>
-      <c r="F218">
-        <v>107.62460208562743</v>
-      </c>
       <c r="G218">
-        <v>-45.107794098815361</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107.7021854403631</v>
+      </c>
+      <c r="H218" s="1">
+        <f>[1]Hoja3!C1861</f>
+        <v>107.30848282152715</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2021</v>
       </c>
@@ -5390,19 +7740,24 @@
         <v>106.58</v>
       </c>
       <c r="D219">
+        <f t="shared" si="3"/>
+        <v>1.5627977892128886E-2</v>
+      </c>
+      <c r="E219">
         <v>3552.43</v>
       </c>
-      <c r="E219">
+      <c r="F219">
         <v>3624.39</v>
       </c>
-      <c r="F219">
-        <v>109.7872613910926</v>
-      </c>
       <c r="G219">
-        <v>-50.97056462845142</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109.87125609970461</v>
+      </c>
+      <c r="H219" s="1">
+        <f>[1]Hoja3!C1862</f>
+        <v>221.04201376553237</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2021</v>
       </c>
@@ -5413,19 +7768,24 @@
         <v>107.12</v>
       </c>
       <c r="D220">
+        <f t="shared" si="3"/>
+        <v>1.5066805647683257E-2</v>
+      </c>
+      <c r="E220">
         <v>3617</v>
       </c>
-      <c r="E220">
+      <c r="F220">
         <v>3736.91</v>
       </c>
-      <c r="F220">
-        <v>111.76204006124924</v>
-      </c>
       <c r="G220">
-        <v>-56.833335158087479</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111.80064378567096</v>
+      </c>
+      <c r="H220" s="1">
+        <f>[1]Hoja3!C1863</f>
+        <v>219.00048840048453</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2021</v>
       </c>
@@ -5436,19 +7796,24 @@
         <v>107.76</v>
       </c>
       <c r="D221">
+        <f t="shared" si="3"/>
+        <v>1.948912015137183E-2</v>
+      </c>
+      <c r="E221">
         <v>3651.85</v>
       </c>
-      <c r="E221">
+      <c r="F221">
         <v>3712.89</v>
       </c>
-      <c r="F221">
-        <v>109.08413371288293</v>
-      </c>
       <c r="G221">
-        <v>-62.696105687723538</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108.88461649392092</v>
+      </c>
+      <c r="H221" s="1">
+        <f>[1]Hoja3!C1864</f>
+        <v>160.21521978022474</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2021</v>
       </c>
@@ -5459,19 +7824,24 @@
         <v>108.84</v>
       </c>
       <c r="D222">
+        <f t="shared" si="3"/>
+        <v>3.302961275626437E-2</v>
+      </c>
+      <c r="E222">
         <v>3741.96</v>
       </c>
-      <c r="E222">
+      <c r="F222">
         <v>3715.28</v>
       </c>
-      <c r="F222">
-        <v>102.83966023893483</v>
-      </c>
       <c r="G222">
-        <v>-68.558876217359597</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102.80267831813144</v>
+      </c>
+      <c r="H222" s="1">
+        <f>[1]Hoja3!C1865</f>
+        <v>151.89108262108675</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2021</v>
       </c>
@@ -5482,19 +7852,24 @@
         <v>108.78</v>
       </c>
       <c r="D223">
+        <f t="shared" si="3"/>
+        <v>3.6296084595598854E-2</v>
+      </c>
+      <c r="E223">
         <v>3693</v>
       </c>
-      <c r="E223">
+      <c r="F223">
         <v>3756.67</v>
       </c>
-      <c r="F223">
-        <v>110.04161409628065</v>
-      </c>
       <c r="G223">
-        <v>-74.421646746995663</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109.97469260736284</v>
+      </c>
+      <c r="H223" s="1">
+        <f>[1]Hoja3!C1866</f>
+        <v>388.04854700855117</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2021</v>
       </c>
@@ -5505,19 +7880,24 @@
         <v>109.14</v>
       </c>
       <c r="D224">
+        <f t="shared" si="3"/>
+        <v>3.9725635895970335E-2</v>
+      </c>
+      <c r="E224">
         <v>3832.24</v>
       </c>
-      <c r="E224">
+      <c r="F224">
         <v>3867.88</v>
       </c>
-      <c r="F224">
-        <v>111.84372911106846</v>
-      </c>
       <c r="G224">
-        <v>-80.284417276631729</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111.81797546378891</v>
+      </c>
+      <c r="H224" s="1">
+        <f>[1]Hoja3!C1867</f>
+        <v>63.912895486580965</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2021</v>
       </c>
@@ -5528,19 +7908,24 @@
         <v>109.62</v>
       </c>
       <c r="D225">
+        <f t="shared" si="3"/>
+        <v>4.4397865853658569E-2</v>
+      </c>
+      <c r="E225">
         <v>3887.68</v>
       </c>
-      <c r="E225">
+      <c r="F225">
         <v>3806.87</v>
       </c>
-      <c r="F225">
-        <v>110.86546165153656</v>
-      </c>
       <c r="G225">
-        <v>-86.147187806267794</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110.83925585143739</v>
+      </c>
+      <c r="H225" s="1">
+        <f>[1]Hoja3!C1868</f>
+        <v>616.206453651022</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2021</v>
       </c>
@@ -5551,19 +7936,24 @@
         <v>110.04</v>
       </c>
       <c r="D226">
+        <f t="shared" si="3"/>
+        <v>4.511349605850512E-2</v>
+      </c>
+      <c r="E226">
         <v>3820.28</v>
       </c>
-      <c r="E226">
+      <c r="F226">
         <v>3834.68</v>
       </c>
-      <c r="F226">
-        <v>116.70528583631319</v>
-      </c>
       <c r="G226">
-        <v>-92.00995833590386</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+        <v>116.71092686105152</v>
+      </c>
+      <c r="H226" s="1">
+        <f>[1]Hoja3!C1869</f>
+        <v>-109.44244548044117</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2021</v>
       </c>
@@ -5574,19 +7964,24 @@
         <v>110.06</v>
       </c>
       <c r="D227">
+        <f t="shared" si="3"/>
+        <v>4.5899458329373699E-2</v>
+      </c>
+      <c r="E227">
         <v>3771.68</v>
       </c>
-      <c r="E227">
+      <c r="F227">
         <v>3784.44</v>
       </c>
-      <c r="F227">
-        <v>116.10444537270943</v>
-      </c>
       <c r="G227">
-        <v>-97.872728865539926</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+        <v>116.11452029634799</v>
+      </c>
+      <c r="H227" s="1">
+        <f>[1]Hoja3!C1870</f>
+        <v>140.35730451466225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2021</v>
       </c>
@@ -5597,19 +7992,24 @@
         <v>110.6</v>
       </c>
       <c r="D228">
+        <f t="shared" si="3"/>
+        <v>5.253140464408057E-2</v>
+      </c>
+      <c r="E228">
         <v>3900.51</v>
       </c>
-      <c r="E228">
+      <c r="F228">
         <v>4010.98</v>
       </c>
-      <c r="F228">
-        <v>117.28131320964104</v>
-      </c>
       <c r="G228">
-        <v>-103.73549939517599</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117.31465542831626</v>
+      </c>
+      <c r="H228" s="1">
+        <f>[1]Hoja3!C1871</f>
+        <v>-57.485425407921184</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2021</v>
       </c>
@@ -5620,19 +8020,24 @@
         <v>111.41</v>
       </c>
       <c r="D229">
+        <f t="shared" si="3"/>
+        <v>5.6219188471748227E-2</v>
+      </c>
+      <c r="E229">
         <v>3967.77</v>
       </c>
-      <c r="E229">
+      <c r="F229">
         <v>3981.16</v>
       </c>
-      <c r="F229">
-        <v>119.30623068861108</v>
-      </c>
       <c r="G229">
-        <v>-109.59826992481203</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119.41237080985152</v>
+      </c>
+      <c r="H229" s="1">
+        <f>[1]Hoja3!C1872</f>
+        <v>-183.8081339031321</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2022</v>
       </c>
@@ -5643,19 +8048,24 @@
         <v>113.26</v>
       </c>
       <c r="D230">
+        <f t="shared" si="3"/>
+        <v>6.9398545935228206E-2</v>
+      </c>
+      <c r="E230">
         <v>4000.72</v>
       </c>
-      <c r="E230">
+      <c r="F230">
         <v>3982.6</v>
       </c>
-      <c r="F230">
-        <v>116.27925328976363</v>
-      </c>
       <c r="G230">
-        <v>-140.95648758113231</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+        <v>116.41524580071622</v>
+      </c>
+      <c r="H230" s="1">
+        <f>[1]Hoja3!C1873</f>
+        <v>-277.10903010033178</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2022</v>
       </c>
@@ -5666,19 +8076,24 @@
         <v>115.11</v>
       </c>
       <c r="D231">
+        <f t="shared" si="3"/>
+        <v>8.0033777444173504E-2</v>
+      </c>
+      <c r="E231">
         <v>3938.36</v>
       </c>
-      <c r="E231">
+      <c r="F231">
         <v>3910.64</v>
       </c>
-      <c r="F231">
-        <v>117.35128240260646</v>
-      </c>
       <c r="G231">
-        <v>-72.72287956095478</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117.47966547244894</v>
+      </c>
+      <c r="H231" s="1">
+        <f>[1]Hoja3!C1874</f>
+        <v>390.77323906198217</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2022</v>
       </c>
@@ -5689,19 +8104,24 @@
         <v>116.26</v>
       </c>
       <c r="D232">
+        <f t="shared" si="3"/>
+        <v>8.53248693054518E-2</v>
+      </c>
+      <c r="E232">
         <v>3805.52</v>
       </c>
-      <c r="E232">
+      <c r="F232">
         <v>3748.15</v>
       </c>
-      <c r="F232">
-        <v>119.37037011845607</v>
-      </c>
       <c r="G232">
-        <v>21.105205054749177</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119.41892792586559</v>
+      </c>
+      <c r="H232" s="1">
+        <f>[1]Hoja3!C1875</f>
+        <v>562.26239316239639</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2022</v>
       </c>
@@ -5712,19 +8132,24 @@
         <v>117.71</v>
       </c>
       <c r="D233">
+        <f t="shared" si="3"/>
+        <v>9.2334818114327977E-2</v>
+      </c>
+      <c r="E233">
         <v>3796.39</v>
       </c>
-      <c r="E233">
+      <c r="F233">
         <v>3966.27</v>
       </c>
-      <c r="F233">
-        <v>120.25294690406336</v>
-      </c>
       <c r="G233">
-        <v>130.58151982401654</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119.8995861068814</v>
+      </c>
+      <c r="H233" s="1">
+        <f>[1]Hoja3!C1876</f>
+        <v>419.36041585865087</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2022</v>
       </c>
@@ -5735,19 +8160,24 @@
         <v>118.7</v>
       </c>
       <c r="D234">
+        <f t="shared" si="3"/>
+        <v>9.0591694230062414E-2</v>
+      </c>
+      <c r="E234">
         <v>4027.6</v>
       </c>
-      <c r="E234">
+      <c r="F234">
         <v>3912.34</v>
       </c>
-      <c r="F234">
-        <v>119.97228468320129</v>
-      </c>
       <c r="G234">
-        <v>102.56757887838936</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119.92234692367856</v>
+      </c>
+      <c r="H234" s="1">
+        <f>[1]Hoja3!C1877</f>
+        <v>381.64571225070677</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2022</v>
       </c>
@@ -5758,19 +8188,24 @@
         <v>119.31</v>
       </c>
       <c r="D235">
+        <f t="shared" si="3"/>
+        <v>9.6800882515168274E-2</v>
+      </c>
+      <c r="E235">
         <v>3922.5</v>
       </c>
-      <c r="E235">
+      <c r="F235">
         <v>4127.47</v>
       </c>
-      <c r="F235">
-        <v>118.46760480469705</v>
-      </c>
       <c r="G235">
-        <v>5.0038963585433862</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118.42038849620143</v>
+      </c>
+      <c r="H235" s="1">
+        <f>[1]Hoja3!C1878</f>
+        <v>1041.8900854700851</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2022</v>
       </c>
@@ -5781,19 +8216,24 @@
         <v>120.27</v>
       </c>
       <c r="D236">
+        <f t="shared" si="3"/>
+        <v>0.1019791094007696</v>
+      </c>
+      <c r="E236">
         <v>4394.01</v>
       </c>
-      <c r="E236">
+      <c r="F236">
         <v>4300.3</v>
       </c>
-      <c r="F236">
-        <v>118.65519783367637</v>
-      </c>
       <c r="G236">
-        <v>-148.39586127141993</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118.60066703006065</v>
+      </c>
+      <c r="H236" s="1">
+        <f>[1]Hoja3!C1879</f>
+        <v>546.23475783475919</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2022</v>
       </c>
@@ -5804,19 +8244,24 @@
         <v>121.5</v>
       </c>
       <c r="D237">
+        <f t="shared" si="3"/>
+        <v>0.10837438423645307</v>
+      </c>
+      <c r="E237">
         <v>4326.7700000000004</v>
       </c>
-      <c r="E237">
+      <c r="F237">
         <v>4400.16</v>
       </c>
-      <c r="F237">
-        <v>120.31283859843766</v>
-      </c>
       <c r="G237">
-        <v>100.25109477821798</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120.29501176391078</v>
+      </c>
+      <c r="H237" s="1">
+        <f>[1]Hoja3!C1880</f>
+        <v>511.11121555578279</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2022</v>
       </c>
@@ -5827,19 +8272,24 @@
         <v>122.63</v>
       </c>
       <c r="D238">
+        <f t="shared" si="3"/>
+        <v>0.11441294074881858</v>
+      </c>
+      <c r="E238">
         <v>4437.3100000000004</v>
       </c>
-      <c r="E238">
+      <c r="F238">
         <v>4532.07</v>
       </c>
-      <c r="F238">
-        <v>121.57156678880115</v>
-      </c>
       <c r="G238">
-        <v>-47.120074421536486</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+        <v>121.59496250724959</v>
+      </c>
+      <c r="H238" s="1">
+        <f>[1]Hoja3!C1881</f>
+        <v>401.01114426314484</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2022</v>
       </c>
@@ -5850,19 +8300,24 @@
         <v>123.51</v>
       </c>
       <c r="D239">
+        <f t="shared" si="3"/>
+        <v>0.12220606941668177</v>
+      </c>
+      <c r="E239">
         <v>4714.96</v>
       </c>
-      <c r="E239">
+      <c r="F239">
         <v>4819.42</v>
       </c>
-      <c r="F239">
-        <v>120.13605309010261</v>
-      </c>
       <c r="G239">
-        <v>4.0703538359788354</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120.13033618479787</v>
+      </c>
+      <c r="H239" s="1">
+        <f>[1]Hoja3!C1882</f>
+        <v>360.00801880036943</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2022</v>
       </c>
@@ -5873,19 +8328,24 @@
         <v>124.46</v>
       </c>
       <c r="D240">
+        <f t="shared" si="3"/>
+        <v>0.12531645569620253</v>
+      </c>
+      <c r="E240">
         <v>4922.3</v>
       </c>
-      <c r="E240">
+      <c r="F240">
         <v>4809.51</v>
       </c>
-      <c r="F240">
-        <v>117.27767122777566</v>
-      </c>
       <c r="G240">
-        <v>-10.72937071042989</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117.27716721242685</v>
+      </c>
+      <c r="H240" s="1">
+        <f>[1]Hoja3!C1883</f>
+        <v>688.99303613053917</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2022</v>
       </c>
@@ -5896,19 +8356,24 @@
         <v>126.03</v>
       </c>
       <c r="D241">
+        <f t="shared" si="3"/>
+        <v>0.13122699937169013</v>
+      </c>
+      <c r="E241">
         <v>4787.8900000000003</v>
       </c>
-      <c r="E241">
+      <c r="F241">
         <v>4810.2</v>
       </c>
-      <c r="F241">
-        <v>119.59610964690062</v>
-      </c>
       <c r="G241">
-        <v>-178.33501436925641</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119.78887396424425</v>
+      </c>
+      <c r="H241" s="1">
+        <f>[1]Hoja3!C1884</f>
+        <v>-268.7497293447268</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2023</v>
       </c>
@@ -5919,19 +8384,24 @@
         <v>128.27000000000001</v>
       </c>
       <c r="D242">
+        <f t="shared" si="3"/>
+        <v>0.13252692918947551</v>
+      </c>
+      <c r="E242">
         <v>4712.18</v>
       </c>
-      <c r="E242">
+      <c r="F242">
         <v>4632.2</v>
       </c>
-      <c r="F242">
-        <v>120.3396842268742</v>
-      </c>
       <c r="G242">
-        <v>-151.50155424779899</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120.51311762841534</v>
+      </c>
+      <c r="H242" s="1">
+        <f>[1]Hoja3!C1885</f>
+        <v>-362.51672240802458</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2023</v>
       </c>
@@ -5942,19 +8412,24 @@
         <v>130.4</v>
       </c>
       <c r="D243">
+        <f t="shared" si="3"/>
+        <v>0.1328294674659023</v>
+      </c>
+      <c r="E243">
         <v>4802.75</v>
       </c>
-      <c r="E243">
+      <c r="F243">
         <v>4808.1400000000003</v>
       </c>
-      <c r="F243">
-        <v>120.10724104755958</v>
-      </c>
       <c r="G243">
-        <v>-152.08233608269393</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120.27687246891563</v>
+      </c>
+      <c r="H243" s="1">
+        <f>[1]Hoja3!C1886</f>
+        <v>-400.08676093801785</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2023</v>
       </c>
@@ -5965,19 +8440,24 @@
         <v>131.77000000000001</v>
       </c>
       <c r="D244">
+        <f t="shared" si="3"/>
+        <v>0.13340787889213845</v>
+      </c>
+      <c r="E244">
         <v>4760.96</v>
       </c>
-      <c r="E244">
+      <c r="F244">
         <v>4627.2700000000004</v>
       </c>
-      <c r="F244">
-        <v>120.524833871102</v>
-      </c>
       <c r="G244">
-        <v>-26.074794945250829</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120.57247188977857</v>
+      </c>
+      <c r="H244" s="1">
+        <f>[1]Hoja3!C1887</f>
+        <v>-300.27606837606527</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2023</v>
       </c>
@@ -5988,19 +8468,24 @@
         <v>132.80000000000001</v>
       </c>
       <c r="D245">
+        <f t="shared" si="3"/>
+        <v>0.12819641491801903</v>
+      </c>
+      <c r="E245">
         <v>4526.03</v>
       </c>
-      <c r="E245">
+      <c r="F245">
         <v>4669</v>
       </c>
-      <c r="F245">
-        <v>118.89141107509155</v>
-      </c>
       <c r="G245">
-        <v>-18.435355175983446</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118.42268530554591</v>
+      </c>
+      <c r="H245" s="1">
+        <f>[1]Hoja3!C1888</f>
+        <v>-721.60892803274692</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2023</v>
       </c>
@@ -6011,19 +8496,24 @@
         <v>133.38</v>
       </c>
       <c r="D246">
+        <f t="shared" si="3"/>
+        <v>0.12367312552653753</v>
+      </c>
+      <c r="E246">
         <v>4539.54</v>
       </c>
-      <c r="E246">
+      <c r="F246">
         <v>4408.6499999999996</v>
       </c>
-      <c r="F246">
-        <v>119.64959868733854</v>
-      </c>
       <c r="G246">
-        <v>-41.789087788277371</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119.60544552997834</v>
+      </c>
+      <c r="H246" s="1">
+        <f>[1]Hoja3!C1889</f>
+        <v>-292.5468803418853</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2023</v>
       </c>
@@ -6034,19 +8524,24 @@
         <v>133.78</v>
       </c>
       <c r="D247">
+        <f t="shared" si="3"/>
+        <v>0.1212806973430558</v>
+      </c>
+      <c r="E247">
         <v>4213.53</v>
       </c>
-      <c r="E247">
+      <c r="F247">
         <v>4191.28</v>
       </c>
-      <c r="F247">
-        <v>120.37532546441416</v>
-      </c>
       <c r="G247">
-        <v>-78.795170308123261</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120.32202003490102</v>
+      </c>
+      <c r="H247" s="1">
+        <f>[1]Hoja3!C1890</f>
+        <v>-94.900683760680067</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2023</v>
       </c>
@@ -6057,19 +8552,24 @@
         <v>134.44999999999999</v>
       </c>
       <c r="D248">
+        <f t="shared" si="3"/>
+        <v>0.11790138854244603</v>
+      </c>
+      <c r="E248">
         <v>4067.63</v>
       </c>
-      <c r="E248">
+      <c r="F248">
         <v>3923.49</v>
       </c>
-      <c r="F248">
-        <v>118.93186051409191</v>
-      </c>
       <c r="G248">
-        <v>-144.48739973295835</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118.89755249174291</v>
+      </c>
+      <c r="H248" s="1">
+        <f>[1]Hoja3!C1891</f>
+        <v>95.215185185179962</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2023</v>
       </c>
@@ -6080,19 +8580,24 @@
         <v>135.38999999999999</v>
       </c>
       <c r="D249">
+        <f t="shared" si="3"/>
+        <v>0.11432098765432097</v>
+      </c>
+      <c r="E249">
         <v>4066.87</v>
       </c>
-      <c r="E249">
+      <c r="F249">
         <v>4085.33</v>
       </c>
-      <c r="F249">
-        <v>120.32526604799259</v>
-      </c>
       <c r="G249">
-        <v>-148.57747665035345</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120.29234618134798</v>
+      </c>
+      <c r="H249" s="1">
+        <f>[1]Hoja3!C1892</f>
+        <v>-326.01962056462617</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2023</v>
       </c>
@@ -6103,19 +8608,24 @@
         <v>136.11000000000001</v>
       </c>
       <c r="D250">
+        <f t="shared" si="3"/>
+        <v>0.10992416211367551</v>
+      </c>
+      <c r="E250">
         <v>4008.41</v>
       </c>
-      <c r="E250">
+      <c r="F250">
         <v>4053.76</v>
       </c>
-      <c r="F250">
-        <v>119.77822493603793</v>
-      </c>
       <c r="G250">
-        <v>-134.94793156439363</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119.79876063789092</v>
+      </c>
+      <c r="H250" s="1">
+        <f>[1]Hoja3!C1893</f>
+        <v>-558.36791556592129</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2023</v>
       </c>
@@ -6126,19 +8636,24 @@
         <v>136.44999999999999</v>
       </c>
       <c r="D251">
+        <f t="shared" si="3"/>
+        <v>0.10476884462796532</v>
+      </c>
+      <c r="E251">
         <v>4219.16</v>
       </c>
-      <c r="E251">
+      <c r="F251">
         <v>4060.83</v>
       </c>
-      <c r="F251">
-        <v>118.94978971897407</v>
-      </c>
       <c r="G251">
-        <v>-6.1072175925926331</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118.96038879817115</v>
+      </c>
+      <c r="H251" s="1">
+        <f>[1]Hoja3!C1894</f>
+        <v>-65.626703421853563</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2023</v>
       </c>
@@ -6149,19 +8664,24 @@
         <v>137.09</v>
       </c>
       <c r="D252">
+        <f t="shared" si="3"/>
+        <v>0.10147838663024267</v>
+      </c>
+      <c r="E252">
         <v>4040.26</v>
       </c>
-      <c r="E252">
+      <c r="F252">
         <v>3980.67</v>
       </c>
-      <c r="F252">
-        <v>120.33723391527424</v>
-      </c>
       <c r="G252">
-        <v>-69.187287377096567</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120.38043872703925</v>
+      </c>
+      <c r="H252" s="1">
+        <f>[1]Hoja3!C1895</f>
+        <v>-342.83108974358629</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2023</v>
       </c>
@@ -6172,19 +8692,24 @@
         <v>137.72</v>
       </c>
       <c r="D253">
+        <f t="shared" si="3"/>
+        <v>9.2755693088947044E-2</v>
+      </c>
+      <c r="E253">
         <v>3954.14</v>
       </c>
-      <c r="E253">
+      <c r="F253">
         <v>3822.05</v>
       </c>
-      <c r="F253">
-        <v>120.01485955790423</v>
-      </c>
       <c r="G253">
-        <v>-150.24056992481201</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120.18322937002918</v>
+      </c>
+      <c r="H253" s="1">
+        <f>[1]Hoja3!C1896</f>
+        <v>31.737678062679606</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2024</v>
       </c>
@@ -6195,19 +8720,24 @@
         <v>138.97999999999999</v>
       </c>
       <c r="D254">
+        <f t="shared" si="3"/>
+        <v>8.3495751149917918E-2</v>
+      </c>
+      <c r="E254">
         <v>3920.2</v>
       </c>
-      <c r="E254">
+      <c r="F254">
         <v>3925.6</v>
       </c>
-      <c r="F254">
-        <v>121.95681308773922</v>
-      </c>
       <c r="G254">
-        <v>-140.73947091446567</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122.16401636482632</v>
+      </c>
+      <c r="H254" s="1">
+        <f>[1]Hoja3!C1897</f>
+        <v>-389.03338907469083</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2024</v>
       </c>
@@ -6218,19 +8748,24 @@
         <v>140.49</v>
       </c>
       <c r="D255">
+        <f t="shared" si="3"/>
+        <v>7.7377300613497013E-2</v>
+      </c>
+      <c r="E255">
         <v>3931.85</v>
       </c>
-      <c r="E255">
+      <c r="F255">
         <v>3933.56</v>
       </c>
-      <c r="F255">
-        <v>121.5319858042425</v>
-      </c>
       <c r="G255">
-        <v>-111.32580830491615</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+        <v>121.74364957352701</v>
+      </c>
+      <c r="H255" s="1">
+        <f>[1]Hoja3!C1898</f>
+        <v>125.84593136966737</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2024</v>
       </c>
@@ -6241,19 +8776,24 @@
         <v>141.47999999999999</v>
       </c>
       <c r="D256">
+        <f t="shared" si="3"/>
+        <v>7.3689003566820732E-2</v>
+      </c>
+      <c r="E256">
         <v>3908.67</v>
       </c>
-      <c r="E256">
+      <c r="F256">
         <v>3842.3</v>
       </c>
-      <c r="F256">
-        <v>120.54981805570011</v>
-      </c>
       <c r="G256">
-        <v>-107.22312827858417</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120.70758930804193</v>
+      </c>
+      <c r="H256" s="1">
+        <f>[1]Hoja3!C1899</f>
+        <v>-336.69145299145021</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2024</v>
       </c>
@@ -6264,13 +8804,21 @@
         <v>142.32</v>
       </c>
       <c r="D257">
+        <f t="shared" si="3"/>
+        <v>7.1686746987951633E-2</v>
+      </c>
+      <c r="E257">
         <v>3866.12</v>
       </c>
-      <c r="E257">
+      <c r="F257">
         <v>3873.44</v>
       </c>
       <c r="G257">
-        <v>-25.885105175983426</v>
+        <v>123.10335682718376</v>
+      </c>
+      <c r="H257" s="1">
+        <f>[1]Hoja3!C1900</f>
+        <v>308.57657766525585</v>
       </c>
     </row>
   </sheetData>
